--- a/Scrum/SPRINT LOG.xlsx
+++ b/Scrum/SPRINT LOG.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet3" sheetId="1" state="visible" r:id="rId2"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="66">
   <si>
     <t xml:space="preserve">SPRINT 1</t>
   </si>
@@ -173,6 +173,12 @@
     <t xml:space="preserve">As a user, I want to see each month's income, expenses, and balance to better understand the situation</t>
   </si>
   <si>
+    <t xml:space="preserve">set month UI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">implement models </t>
+  </si>
+  <si>
     <t xml:space="preserve">#24</t>
   </si>
   <si>
@@ -257,6 +263,13 @@
     </font>
     <font>
       <sz val="12"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color rgb="FF106802"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -272,13 +285,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
@@ -356,6 +362,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor rgb="FFCC0000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFCCF4C6"/>
         <bgColor rgb="FFCCFFFF"/>
       </patternFill>
@@ -364,12 +376,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFDE9A9"/>
         <bgColor rgb="FFF9CFB5"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor rgb="FFCC0000"/>
       </patternFill>
     </fill>
     <fill>
@@ -450,15 +456,15 @@
     <xf numFmtId="164" fontId="5" fillId="3" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="4" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="4" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="7" fillId="5" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="5" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="24">
@@ -534,7 +540,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="4" borderId="1" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="12" fillId="5" borderId="1" xfId="23" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -567,10 +573,10 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
     <cellStyle name="BACKLOG" xfId="20"/>
-    <cellStyle name="DONE" xfId="21"/>
-    <cellStyle name="IN PROGRESS" xfId="22"/>
-    <cellStyle name="Normal 2" xfId="23"/>
-    <cellStyle name="CANCELED" xfId="24"/>
+    <cellStyle name="CANCELED" xfId="21"/>
+    <cellStyle name="DONE" xfId="22"/>
+    <cellStyle name="IN PROGRESS" xfId="23"/>
+    <cellStyle name="Normal 2" xfId="24"/>
   </cellStyles>
   <dxfs count="5">
     <dxf>
@@ -635,7 +641,6 @@
           <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </dxf>
     <dxf>
       <font>
@@ -716,7 +721,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -916,37 +921,37 @@
                   <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>22</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>22</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>22</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>22</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>22</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>22</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>22</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>22</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>22</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>22</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>22</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -961,11 +966,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="71964633"/>
-        <c:axId val="89737480"/>
+        <c:axId val="97627625"/>
+        <c:axId val="17290658"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="71964633"/>
+        <c:axId val="97627625"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -993,7 +998,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="89737480"/>
+        <c:crossAx val="17290658"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1001,7 +1006,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="89737480"/>
+        <c:axId val="17290658"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1038,7 +1043,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="71964633"/>
+        <c:crossAx val="97627625"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1097,9 +1102,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>367200</xdr:colOff>
+      <xdr:colOff>366840</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>6840</xdr:rowOff>
+      <xdr:rowOff>6480</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1108,7 +1113,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="5235480" y="2126520"/>
-        <a:ext cx="15023880" cy="8437320"/>
+        <a:ext cx="15023520" cy="8436960"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1170,10 +1175,10 @@
     <tabColor rgb="FFCCF4C6"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AMJ124"/>
+  <dimension ref="A1:AMJ125"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="R59" activeCellId="0" sqref="R59"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A28" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="X37" activeCellId="0" sqref="X37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.4921875" defaultRowHeight="35.55" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4628,7 +4633,15 @@
       </c>
     </row>
     <row r="36" customFormat="false" ht="35.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E36" s="16"/>
+      <c r="B36" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D36" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="E36" s="16" t="s">
+        <v>11</v>
+      </c>
       <c r="G36" s="17" t="n">
         <v>0</v>
       </c>
@@ -4681,2731 +4694,1766 @@
         <v>0</v>
       </c>
       <c r="X36" s="17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y36" s="17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z36" s="17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA36" s="17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB36" s="17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC36" s="17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD36" s="17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE36" s="17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF36" s="17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG36" s="17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH36" s="17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="35.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A37" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="B37" s="11" t="s">
+      <c r="B37" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C37" s="11" t="s">
+      <c r="D37" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="E37" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="G37" s="17"/>
+      <c r="H37" s="17"/>
+      <c r="I37" s="17"/>
+      <c r="J37" s="17"/>
+      <c r="K37" s="17"/>
+      <c r="L37" s="17"/>
+      <c r="M37" s="17"/>
+      <c r="N37" s="17"/>
+      <c r="O37" s="17"/>
+      <c r="P37" s="17"/>
+      <c r="Q37" s="17"/>
+      <c r="R37" s="17"/>
+      <c r="S37" s="17"/>
+      <c r="T37" s="17"/>
+      <c r="U37" s="17"/>
+      <c r="V37" s="17"/>
+      <c r="W37" s="17"/>
+      <c r="X37" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y37" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z37" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA37" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB37" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC37" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD37" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE37" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF37" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG37" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH37" s="17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="35.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A38" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="B38" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="C38" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="D37" s="12"/>
-      <c r="E37" s="16" t="s">
+      <c r="D38" s="12"/>
+      <c r="E38" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="F37" s="13" t="n">
+      <c r="F38" s="13" t="n">
         <v>2</v>
       </c>
-      <c r="G37" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H37" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J37" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K37" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L37" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M37" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N37" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O37" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="P37" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q37" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="R37" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="S37" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="T37" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="U37" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="V37" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="W37" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="X37" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y37" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z37" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA37" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB37" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC37" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD37" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE37" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF37" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG37" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH37" s="14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="35.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E38" s="16"/>
-      <c r="G38" s="17" t="n">
-        <v>0</v>
-      </c>
-      <c r="H38" s="17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" s="17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" s="17" t="n">
-        <v>0</v>
-      </c>
-      <c r="K38" s="17" t="n">
-        <v>0</v>
-      </c>
-      <c r="L38" s="17" t="n">
-        <v>0</v>
-      </c>
-      <c r="M38" s="17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N38" s="17" t="n">
-        <v>0</v>
-      </c>
-      <c r="O38" s="17" t="n">
-        <v>0</v>
-      </c>
-      <c r="P38" s="17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q38" s="17" t="n">
-        <v>0</v>
-      </c>
-      <c r="R38" s="17" t="n">
-        <v>0</v>
-      </c>
-      <c r="S38" s="17" t="n">
-        <v>0</v>
-      </c>
-      <c r="T38" s="17" t="n">
-        <v>0</v>
-      </c>
-      <c r="U38" s="17" t="n">
-        <v>0</v>
-      </c>
-      <c r="V38" s="17" t="n">
-        <v>0</v>
-      </c>
-      <c r="W38" s="17" t="n">
-        <v>0</v>
-      </c>
-      <c r="X38" s="17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y38" s="17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z38" s="17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA38" s="17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB38" s="17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC38" s="17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD38" s="17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE38" s="17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF38" s="17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG38" s="17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH38" s="17" t="n">
+      <c r="G38" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H38" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K38" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L38" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M38" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O38" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="P38" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q38" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="R38" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="S38" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="T38" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="U38" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="V38" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="X38" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y38" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z38" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA38" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB38" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC38" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD38" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE38" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF38" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG38" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH38" s="14" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="35.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A39" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="B39" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="C39" s="11" t="s">
+      <c r="E39" s="16"/>
+      <c r="G39" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H39" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I39" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K39" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L39" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M39" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N39" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O39" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="P39" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q39" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="R39" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="S39" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="T39" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="U39" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="V39" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="X39" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y39" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z39" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA39" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB39" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC39" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD39" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE39" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF39" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG39" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH39" s="17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="35.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A40" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="B40" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="C40" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="D39" s="12"/>
-      <c r="E39" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="F39" s="13"/>
-      <c r="G39" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H39" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K39" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L39" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M39" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N39" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O39" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="P39" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q39" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="R39" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="S39" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="T39" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="U39" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="V39" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="W39" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="X39" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y39" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z39" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA39" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB39" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC39" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD39" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE39" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF39" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG39" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH39" s="14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="35.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E40" s="16"/>
-      <c r="G40" s="17" t="n">
-        <v>0</v>
-      </c>
-      <c r="H40" s="17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" s="17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" s="17" t="n">
-        <v>0</v>
-      </c>
-      <c r="K40" s="17" t="n">
-        <v>0</v>
-      </c>
-      <c r="L40" s="17" t="n">
-        <v>0</v>
-      </c>
-      <c r="M40" s="17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N40" s="17" t="n">
-        <v>0</v>
-      </c>
-      <c r="O40" s="17" t="n">
-        <v>0</v>
-      </c>
-      <c r="P40" s="17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q40" s="17" t="n">
-        <v>0</v>
-      </c>
-      <c r="R40" s="17" t="n">
-        <v>0</v>
-      </c>
-      <c r="S40" s="17" t="n">
-        <v>0</v>
-      </c>
-      <c r="T40" s="17" t="n">
-        <v>0</v>
-      </c>
-      <c r="U40" s="17" t="n">
-        <v>0</v>
-      </c>
-      <c r="V40" s="17" t="n">
-        <v>0</v>
-      </c>
-      <c r="W40" s="17" t="n">
-        <v>0</v>
-      </c>
-      <c r="X40" s="17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y40" s="17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z40" s="17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA40" s="17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB40" s="17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC40" s="17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD40" s="17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE40" s="17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF40" s="17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG40" s="17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH40" s="17" t="n">
+      <c r="D40" s="12"/>
+      <c r="E40" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="F40" s="13"/>
+      <c r="G40" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H40" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I40" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K40" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L40" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M40" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N40" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O40" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="P40" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q40" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="R40" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="S40" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="T40" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="U40" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="V40" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="X40" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y40" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z40" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA40" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB40" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC40" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD40" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE40" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF40" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG40" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH40" s="14" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="35.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A41" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="B41" s="11" t="s">
+      <c r="E41" s="16"/>
+      <c r="G41" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H41" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K41" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L41" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M41" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O41" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="P41" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q41" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="R41" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="S41" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="T41" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="U41" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="V41" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="X41" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y41" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z41" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA41" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB41" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC41" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD41" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE41" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF41" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG41" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH41" s="17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="35.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A42" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="B42" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="C42" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="D42" s="12"/>
+      <c r="E42" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="C41" s="11" t="s">
+      <c r="F42" s="13"/>
+      <c r="G42" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H42" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I42" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J42" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K42" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L42" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M42" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N42" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O42" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="P42" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q42" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="R42" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="S42" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="T42" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="U42" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="V42" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="X42" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y42" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z42" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA42" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB42" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC42" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD42" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE42" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF42" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG42" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH42" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="35.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="E43" s="16"/>
+      <c r="G43" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H43" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I43" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K43" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L43" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M43" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N43" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O43" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="P43" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q43" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="R43" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="S43" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="T43" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="U43" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="V43" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="X43" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y43" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z43" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA43" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB43" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC43" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD43" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE43" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF43" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG43" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH43" s="17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="35.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A44" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="B44" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="C44" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="D41" s="12"/>
-      <c r="E41" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="F41" s="13"/>
-      <c r="G41" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H41" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J41" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K41" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L41" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M41" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N41" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O41" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="P41" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q41" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="R41" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="S41" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="T41" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="U41" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="V41" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="W41" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="X41" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y41" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z41" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA41" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB41" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC41" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD41" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE41" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF41" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG41" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH41" s="14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" customFormat="false" ht="35.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E42" s="16"/>
-      <c r="G42" s="17" t="n">
-        <v>0</v>
-      </c>
-      <c r="H42" s="17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" s="17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J42" s="17" t="n">
-        <v>0</v>
-      </c>
-      <c r="K42" s="17" t="n">
-        <v>0</v>
-      </c>
-      <c r="L42" s="17" t="n">
-        <v>0</v>
-      </c>
-      <c r="M42" s="17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N42" s="17" t="n">
-        <v>0</v>
-      </c>
-      <c r="O42" s="17" t="n">
-        <v>0</v>
-      </c>
-      <c r="P42" s="17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q42" s="17" t="n">
-        <v>0</v>
-      </c>
-      <c r="R42" s="17" t="n">
-        <v>0</v>
-      </c>
-      <c r="S42" s="17" t="n">
-        <v>0</v>
-      </c>
-      <c r="T42" s="17" t="n">
-        <v>0</v>
-      </c>
-      <c r="U42" s="17" t="n">
-        <v>0</v>
-      </c>
-      <c r="V42" s="17" t="n">
-        <v>0</v>
-      </c>
-      <c r="W42" s="17" t="n">
-        <v>0</v>
-      </c>
-      <c r="X42" s="17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y42" s="17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z42" s="17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA42" s="17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB42" s="17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC42" s="17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD42" s="17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE42" s="17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF42" s="17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG42" s="17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH42" s="17" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" customFormat="false" ht="35.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A43" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="B43" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="C43" s="11" t="s">
+      <c r="D44" s="12"/>
+      <c r="E44" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="F44" s="13"/>
+      <c r="G44" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H44" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I44" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K44" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L44" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M44" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N44" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O44" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="P44" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q44" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="R44" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="S44" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="T44" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="U44" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="V44" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="X44" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y44" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z44" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA44" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB44" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC44" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD44" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE44" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF44" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG44" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH44" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="35.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="E45" s="16"/>
+      <c r="G45" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H45" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I45" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K45" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L45" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M45" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N45" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O45" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="P45" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q45" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="R45" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="S45" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="T45" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="U45" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="V45" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="X45" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y45" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z45" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA45" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB45" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC45" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD45" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE45" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF45" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG45" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH45" s="17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="35.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A46" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="B46" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="C46" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="D43" s="12"/>
-      <c r="E43" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="F43" s="13"/>
-      <c r="G43" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H43" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J43" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K43" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L43" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M43" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N43" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O43" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="P43" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q43" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="R43" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="S43" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="T43" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="U43" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="V43" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="W43" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="X43" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y43" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z43" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA43" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB43" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC43" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD43" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE43" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF43" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG43" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH43" s="14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" customFormat="false" ht="35.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E44" s="16"/>
-      <c r="G44" s="17" t="n">
-        <v>0</v>
-      </c>
-      <c r="H44" s="17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" s="17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" s="17" t="n">
-        <v>0</v>
-      </c>
-      <c r="K44" s="17" t="n">
-        <v>0</v>
-      </c>
-      <c r="L44" s="17" t="n">
-        <v>0</v>
-      </c>
-      <c r="M44" s="17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N44" s="17" t="n">
-        <v>0</v>
-      </c>
-      <c r="O44" s="17" t="n">
-        <v>0</v>
-      </c>
-      <c r="P44" s="17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q44" s="17" t="n">
-        <v>0</v>
-      </c>
-      <c r="R44" s="17" t="n">
-        <v>0</v>
-      </c>
-      <c r="S44" s="17" t="n">
-        <v>0</v>
-      </c>
-      <c r="T44" s="17" t="n">
-        <v>0</v>
-      </c>
-      <c r="U44" s="17" t="n">
-        <v>0</v>
-      </c>
-      <c r="V44" s="17" t="n">
-        <v>0</v>
-      </c>
-      <c r="W44" s="17" t="n">
-        <v>0</v>
-      </c>
-      <c r="X44" s="17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y44" s="17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z44" s="17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA44" s="17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB44" s="17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC44" s="17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD44" s="17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE44" s="17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF44" s="17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG44" s="17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH44" s="17" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" customFormat="false" ht="35.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A45" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="B45" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="C45" s="11" t="s">
+      <c r="D46" s="12"/>
+      <c r="E46" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="F46" s="13"/>
+      <c r="G46" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H46" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I46" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J46" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K46" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L46" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M46" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N46" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O46" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="P46" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q46" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="R46" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="S46" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="T46" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="U46" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="V46" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="X46" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y46" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z46" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA46" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB46" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC46" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD46" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE46" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF46" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG46" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH46" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="35.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="E47" s="16"/>
+      <c r="G47" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H47" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I47" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J47" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K47" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L47" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M47" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N47" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O47" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="P47" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q47" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="R47" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="S47" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="T47" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="U47" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="V47" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="X47" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y47" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z47" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA47" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB47" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC47" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD47" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE47" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF47" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG47" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH47" s="17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="35.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A48" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="B48" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="C48" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="D45" s="12"/>
-      <c r="E45" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="F45" s="13"/>
-      <c r="G45" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H45" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K45" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L45" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M45" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N45" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O45" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="P45" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q45" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="R45" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="S45" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="T45" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="U45" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="V45" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="W45" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="X45" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y45" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z45" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA45" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB45" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC45" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD45" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE45" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF45" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG45" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH45" s="14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" customFormat="false" ht="35.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E46" s="16"/>
-      <c r="G46" s="17" t="n">
-        <v>0</v>
-      </c>
-      <c r="H46" s="17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" s="17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J46" s="17" t="n">
-        <v>0</v>
-      </c>
-      <c r="K46" s="17" t="n">
-        <v>0</v>
-      </c>
-      <c r="L46" s="17" t="n">
-        <v>0</v>
-      </c>
-      <c r="M46" s="17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N46" s="17" t="n">
-        <v>0</v>
-      </c>
-      <c r="O46" s="17" t="n">
-        <v>0</v>
-      </c>
-      <c r="P46" s="17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q46" s="17" t="n">
-        <v>0</v>
-      </c>
-      <c r="R46" s="17" t="n">
-        <v>0</v>
-      </c>
-      <c r="S46" s="17" t="n">
-        <v>0</v>
-      </c>
-      <c r="T46" s="17" t="n">
-        <v>0</v>
-      </c>
-      <c r="U46" s="17" t="n">
-        <v>0</v>
-      </c>
-      <c r="V46" s="17" t="n">
-        <v>0</v>
-      </c>
-      <c r="W46" s="17" t="n">
-        <v>0</v>
-      </c>
-      <c r="X46" s="17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y46" s="17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z46" s="17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA46" s="17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB46" s="17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC46" s="17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD46" s="17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE46" s="17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF46" s="17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG46" s="17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH46" s="17" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" customFormat="false" ht="35.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A47" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="B47" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="C47" s="11" t="s">
+      <c r="D48" s="12"/>
+      <c r="E48" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="F48" s="13"/>
+      <c r="G48" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H48" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I48" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J48" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K48" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L48" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M48" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N48" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O48" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="P48" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q48" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="R48" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="S48" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="T48" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="U48" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="V48" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="X48" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y48" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z48" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA48" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB48" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC48" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD48" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE48" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF48" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG48" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH48" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="35.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="E49" s="16"/>
+      <c r="G49" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H49" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I49" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K49" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L49" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M49" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N49" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O49" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="P49" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q49" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="R49" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="S49" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="T49" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="U49" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="V49" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="X49" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y49" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z49" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA49" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB49" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC49" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD49" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE49" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF49" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG49" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH49" s="17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="35.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A50" s="11"/>
+      <c r="B50" s="11"/>
+      <c r="C50" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="D47" s="12"/>
-      <c r="E47" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="F47" s="13"/>
-      <c r="G47" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H47" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I47" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J47" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K47" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L47" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M47" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N47" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O47" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="P47" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q47" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="R47" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="S47" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="T47" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="U47" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="V47" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="W47" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="X47" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y47" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z47" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA47" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB47" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC47" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD47" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE47" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF47" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG47" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH47" s="14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" customFormat="false" ht="35.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E48" s="16"/>
-      <c r="G48" s="17" t="n">
-        <v>0</v>
-      </c>
-      <c r="H48" s="17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I48" s="17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J48" s="17" t="n">
-        <v>0</v>
-      </c>
-      <c r="K48" s="17" t="n">
-        <v>0</v>
-      </c>
-      <c r="L48" s="17" t="n">
-        <v>0</v>
-      </c>
-      <c r="M48" s="17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N48" s="17" t="n">
-        <v>0</v>
-      </c>
-      <c r="O48" s="17" t="n">
-        <v>0</v>
-      </c>
-      <c r="P48" s="17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q48" s="17" t="n">
-        <v>0</v>
-      </c>
-      <c r="R48" s="17" t="n">
-        <v>0</v>
-      </c>
-      <c r="S48" s="17" t="n">
-        <v>0</v>
-      </c>
-      <c r="T48" s="17" t="n">
-        <v>0</v>
-      </c>
-      <c r="U48" s="17" t="n">
-        <v>0</v>
-      </c>
-      <c r="V48" s="17" t="n">
-        <v>0</v>
-      </c>
-      <c r="W48" s="17" t="n">
-        <v>0</v>
-      </c>
-      <c r="X48" s="17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y48" s="17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z48" s="17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA48" s="17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB48" s="17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC48" s="17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD48" s="17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE48" s="17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF48" s="17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG48" s="17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH48" s="17" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" customFormat="false" ht="35.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A49" s="11"/>
-      <c r="B49" s="11"/>
-      <c r="C49" s="11" t="s">
+      <c r="D50" s="12"/>
+      <c r="E50" s="16"/>
+      <c r="F50" s="13"/>
+      <c r="G50" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H50" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I50" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J50" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K50" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L50" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M50" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N50" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O50" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="P50" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q50" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="R50" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="S50" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="T50" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="U50" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="V50" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="X50" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y50" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z50" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA50" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB50" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC50" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD50" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE50" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF50" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG50" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH50" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="35.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="E51" s="16"/>
+      <c r="G51" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H51" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I51" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K51" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L51" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M51" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N51" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O51" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="P51" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q51" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="R51" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="S51" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="T51" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="U51" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="V51" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="X51" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y51" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z51" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA51" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB51" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC51" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD51" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE51" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF51" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG51" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH51" s="17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="35.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A52" s="11"/>
+      <c r="B52" s="11"/>
+      <c r="C52" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="D49" s="12"/>
-      <c r="E49" s="16"/>
-      <c r="F49" s="13"/>
-      <c r="G49" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H49" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I49" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K49" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L49" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M49" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N49" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O49" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="P49" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q49" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="R49" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="S49" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="T49" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="U49" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="V49" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="W49" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="X49" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y49" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z49" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA49" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB49" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC49" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD49" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE49" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF49" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG49" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH49" s="14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" customFormat="false" ht="35.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E50" s="16"/>
-      <c r="G50" s="17" t="n">
-        <v>0</v>
-      </c>
-      <c r="H50" s="17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I50" s="17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J50" s="17" t="n">
-        <v>0</v>
-      </c>
-      <c r="K50" s="17" t="n">
-        <v>0</v>
-      </c>
-      <c r="L50" s="17" t="n">
-        <v>0</v>
-      </c>
-      <c r="M50" s="17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N50" s="17" t="n">
-        <v>0</v>
-      </c>
-      <c r="O50" s="17" t="n">
-        <v>0</v>
-      </c>
-      <c r="P50" s="17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q50" s="17" t="n">
-        <v>0</v>
-      </c>
-      <c r="R50" s="17" t="n">
-        <v>0</v>
-      </c>
-      <c r="S50" s="17" t="n">
-        <v>0</v>
-      </c>
-      <c r="T50" s="17" t="n">
-        <v>0</v>
-      </c>
-      <c r="U50" s="17" t="n">
-        <v>0</v>
-      </c>
-      <c r="V50" s="17" t="n">
-        <v>0</v>
-      </c>
-      <c r="W50" s="17" t="n">
-        <v>0</v>
-      </c>
-      <c r="X50" s="17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y50" s="17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z50" s="17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA50" s="17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB50" s="17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC50" s="17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD50" s="17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE50" s="17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF50" s="17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG50" s="17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH50" s="17" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" customFormat="false" ht="35.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A51" s="11"/>
-      <c r="B51" s="11"/>
-      <c r="C51" s="11" t="s">
+      <c r="D52" s="12"/>
+      <c r="E52" s="16"/>
+      <c r="F52" s="13"/>
+      <c r="G52" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H52" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I52" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J52" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K52" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L52" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M52" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N52" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O52" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="P52" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q52" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="R52" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="S52" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="T52" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="U52" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="V52" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="X52" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y52" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z52" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA52" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB52" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC52" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD52" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE52" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF52" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG52" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH52" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="35.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="E53" s="16"/>
+      <c r="G53" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H53" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I53" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J53" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K53" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L53" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M53" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N53" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O53" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="P53" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q53" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="R53" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="S53" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="T53" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="U53" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="V53" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="X53" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y53" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z53" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA53" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB53" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC53" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD53" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE53" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF53" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG53" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH53" s="17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="35.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A54" s="11"/>
+      <c r="B54" s="11"/>
+      <c r="C54" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="D51" s="12"/>
-      <c r="E51" s="16"/>
-      <c r="F51" s="13"/>
-      <c r="G51" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H51" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I51" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K51" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L51" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M51" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N51" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O51" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="P51" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q51" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="R51" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="S51" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="T51" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="U51" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="V51" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="W51" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="X51" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y51" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z51" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA51" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB51" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC51" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD51" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE51" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF51" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG51" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH51" s="14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" customFormat="false" ht="35.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E52" s="16"/>
-      <c r="G52" s="17" t="n">
-        <v>0</v>
-      </c>
-      <c r="H52" s="17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I52" s="17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J52" s="17" t="n">
-        <v>0</v>
-      </c>
-      <c r="K52" s="17" t="n">
-        <v>0</v>
-      </c>
-      <c r="L52" s="17" t="n">
-        <v>0</v>
-      </c>
-      <c r="M52" s="17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N52" s="17" t="n">
-        <v>0</v>
-      </c>
-      <c r="O52" s="17" t="n">
-        <v>0</v>
-      </c>
-      <c r="P52" s="17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q52" s="17" t="n">
-        <v>0</v>
-      </c>
-      <c r="R52" s="17" t="n">
-        <v>0</v>
-      </c>
-      <c r="S52" s="17" t="n">
-        <v>0</v>
-      </c>
-      <c r="T52" s="17" t="n">
-        <v>0</v>
-      </c>
-      <c r="U52" s="17" t="n">
-        <v>0</v>
-      </c>
-      <c r="V52" s="17" t="n">
-        <v>0</v>
-      </c>
-      <c r="W52" s="17" t="n">
-        <v>0</v>
-      </c>
-      <c r="X52" s="17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y52" s="17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z52" s="17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA52" s="17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB52" s="17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC52" s="17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD52" s="17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE52" s="17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF52" s="17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG52" s="17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH52" s="17" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" customFormat="false" ht="35.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A53" s="11"/>
-      <c r="B53" s="11"/>
-      <c r="C53" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="D53" s="12"/>
-      <c r="E53" s="16"/>
-      <c r="F53" s="13"/>
-      <c r="G53" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H53" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I53" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J53" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K53" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L53" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M53" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N53" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O53" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="P53" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q53" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="R53" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="S53" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="T53" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="U53" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="V53" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="W53" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="X53" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y53" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z53" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA53" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB53" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC53" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD53" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE53" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF53" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG53" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH53" s="14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" customFormat="false" ht="35.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D54" s="12"/>
       <c r="E54" s="16"/>
-      <c r="G54" s="17" t="n">
-        <v>0</v>
-      </c>
-      <c r="H54" s="17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I54" s="17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J54" s="17" t="n">
-        <v>0</v>
-      </c>
-      <c r="K54" s="17" t="n">
-        <v>0</v>
-      </c>
-      <c r="L54" s="17" t="n">
-        <v>0</v>
-      </c>
-      <c r="M54" s="17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N54" s="17" t="n">
-        <v>0</v>
-      </c>
-      <c r="O54" s="17" t="n">
-        <v>0</v>
-      </c>
-      <c r="P54" s="17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q54" s="17" t="n">
-        <v>0</v>
-      </c>
-      <c r="R54" s="17" t="n">
-        <v>0</v>
-      </c>
-      <c r="S54" s="17" t="n">
-        <v>0</v>
-      </c>
-      <c r="T54" s="17" t="n">
-        <v>0</v>
-      </c>
-      <c r="U54" s="17" t="n">
-        <v>0</v>
-      </c>
-      <c r="V54" s="17" t="n">
-        <v>0</v>
-      </c>
-      <c r="W54" s="17" t="n">
-        <v>0</v>
-      </c>
-      <c r="X54" s="17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y54" s="17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z54" s="17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA54" s="17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB54" s="17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC54" s="17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD54" s="17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE54" s="17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF54" s="17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG54" s="17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH54" s="17" t="n">
+      <c r="F54" s="13"/>
+      <c r="G54" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H54" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I54" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J54" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K54" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L54" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M54" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N54" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O54" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="P54" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q54" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="R54" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="S54" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="T54" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="U54" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="V54" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="X54" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y54" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z54" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA54" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB54" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC54" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD54" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE54" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF54" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG54" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH54" s="14" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="35.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A55" s="0"/>
-      <c r="B55" s="0"/>
-      <c r="C55" s="0"/>
-      <c r="D55" s="0"/>
-      <c r="E55" s="0"/>
-      <c r="F55" s="0"/>
-      <c r="G55" s="0"/>
-      <c r="H55" s="0"/>
-      <c r="I55" s="0"/>
-      <c r="J55" s="0"/>
-      <c r="K55" s="0"/>
-      <c r="L55" s="0"/>
-      <c r="M55" s="0"/>
-      <c r="N55" s="0"/>
-      <c r="O55" s="0"/>
-      <c r="P55" s="0"/>
-      <c r="Q55" s="0"/>
-      <c r="R55" s="0"/>
-      <c r="S55" s="0"/>
-      <c r="T55" s="0"/>
-      <c r="U55" s="0"/>
-      <c r="V55" s="0"/>
-      <c r="W55" s="0"/>
-      <c r="X55" s="0"/>
-      <c r="Y55" s="0"/>
-      <c r="Z55" s="0"/>
-      <c r="AA55" s="0"/>
-      <c r="AB55" s="0"/>
-      <c r="AC55" s="0"/>
-      <c r="AD55" s="0"/>
-      <c r="AE55" s="0"/>
-      <c r="AF55" s="0"/>
-      <c r="AG55" s="0"/>
-      <c r="AH55" s="0"/>
-      <c r="AI55" s="0"/>
-      <c r="AJ55" s="0"/>
-      <c r="AK55" s="0"/>
-      <c r="AL55" s="0"/>
-      <c r="AM55" s="0"/>
-      <c r="AN55" s="0"/>
-      <c r="AO55" s="0"/>
-      <c r="AP55" s="0"/>
-      <c r="AQ55" s="0"/>
-      <c r="AR55" s="0"/>
-      <c r="AS55" s="0"/>
-      <c r="AT55" s="0"/>
-      <c r="AU55" s="0"/>
-      <c r="AV55" s="0"/>
-      <c r="AW55" s="0"/>
-      <c r="AX55" s="0"/>
-      <c r="AY55" s="0"/>
-      <c r="AZ55" s="0"/>
-      <c r="BA55" s="0"/>
-      <c r="BB55" s="0"/>
-      <c r="BC55" s="0"/>
-      <c r="BD55" s="0"/>
-      <c r="BE55" s="0"/>
-      <c r="BF55" s="0"/>
-      <c r="BG55" s="0"/>
-      <c r="BH55" s="0"/>
-      <c r="BI55" s="0"/>
-      <c r="BJ55" s="0"/>
-      <c r="BK55" s="0"/>
-      <c r="BL55" s="0"/>
-      <c r="BM55" s="0"/>
-      <c r="BN55" s="0"/>
-      <c r="BO55" s="0"/>
-      <c r="BP55" s="0"/>
-      <c r="BQ55" s="0"/>
-      <c r="BR55" s="0"/>
-      <c r="BS55" s="0"/>
-      <c r="BT55" s="0"/>
-      <c r="BU55" s="0"/>
-      <c r="BV55" s="0"/>
-      <c r="BW55" s="0"/>
-      <c r="BX55" s="0"/>
-      <c r="BY55" s="0"/>
-      <c r="BZ55" s="0"/>
-      <c r="CA55" s="0"/>
-      <c r="CB55" s="0"/>
-      <c r="CC55" s="0"/>
-      <c r="CD55" s="0"/>
-      <c r="CE55" s="0"/>
-      <c r="CF55" s="0"/>
-      <c r="CG55" s="0"/>
-      <c r="CH55" s="0"/>
-      <c r="CI55" s="0"/>
-      <c r="CJ55" s="0"/>
-      <c r="CK55" s="0"/>
-      <c r="CL55" s="0"/>
-      <c r="CM55" s="0"/>
-      <c r="CN55" s="0"/>
-      <c r="CO55" s="0"/>
-      <c r="CP55" s="0"/>
-      <c r="CQ55" s="0"/>
-      <c r="CR55" s="0"/>
-      <c r="CS55" s="0"/>
-      <c r="CT55" s="0"/>
-      <c r="CU55" s="0"/>
-      <c r="CV55" s="0"/>
-      <c r="CW55" s="0"/>
-      <c r="CX55" s="0"/>
-      <c r="CY55" s="0"/>
-      <c r="CZ55" s="0"/>
-      <c r="DA55" s="0"/>
-      <c r="DB55" s="0"/>
-      <c r="DC55" s="0"/>
-      <c r="DD55" s="0"/>
-      <c r="DE55" s="0"/>
-      <c r="DF55" s="0"/>
-      <c r="DG55" s="0"/>
-      <c r="DH55" s="0"/>
-      <c r="DI55" s="0"/>
-      <c r="DJ55" s="0"/>
-      <c r="DK55" s="0"/>
-      <c r="DL55" s="0"/>
-      <c r="DM55" s="0"/>
-      <c r="DN55" s="0"/>
-      <c r="DO55" s="0"/>
-      <c r="DP55" s="0"/>
-      <c r="DQ55" s="0"/>
-      <c r="DR55" s="0"/>
-      <c r="DS55" s="0"/>
-      <c r="DT55" s="0"/>
-      <c r="DU55" s="0"/>
-      <c r="DV55" s="0"/>
-      <c r="DW55" s="0"/>
-      <c r="DX55" s="0"/>
-      <c r="DY55" s="0"/>
-      <c r="DZ55" s="0"/>
-      <c r="EA55" s="0"/>
-      <c r="EB55" s="0"/>
-      <c r="EC55" s="0"/>
-      <c r="ED55" s="0"/>
-      <c r="EE55" s="0"/>
-      <c r="EF55" s="0"/>
-      <c r="EG55" s="0"/>
-      <c r="EH55" s="0"/>
-      <c r="EI55" s="0"/>
-      <c r="EJ55" s="0"/>
-      <c r="EK55" s="0"/>
-      <c r="EL55" s="0"/>
-      <c r="EM55" s="0"/>
-      <c r="EN55" s="0"/>
-      <c r="EO55" s="0"/>
-      <c r="EP55" s="0"/>
-      <c r="EQ55" s="0"/>
-      <c r="ER55" s="0"/>
-      <c r="ES55" s="0"/>
-      <c r="ET55" s="0"/>
-      <c r="EU55" s="0"/>
-      <c r="EV55" s="0"/>
-      <c r="EW55" s="0"/>
-      <c r="EX55" s="0"/>
-      <c r="EY55" s="0"/>
-      <c r="EZ55" s="0"/>
-      <c r="FA55" s="0"/>
-      <c r="FB55" s="0"/>
-      <c r="FC55" s="0"/>
-      <c r="FD55" s="0"/>
-      <c r="FE55" s="0"/>
-      <c r="FF55" s="0"/>
-      <c r="FG55" s="0"/>
-      <c r="FH55" s="0"/>
-      <c r="FI55" s="0"/>
-      <c r="FJ55" s="0"/>
-      <c r="FK55" s="0"/>
-      <c r="FL55" s="0"/>
-      <c r="FM55" s="0"/>
-      <c r="FN55" s="0"/>
-      <c r="FO55" s="0"/>
-      <c r="FP55" s="0"/>
-      <c r="FQ55" s="0"/>
-      <c r="FR55" s="0"/>
-      <c r="FS55" s="0"/>
-      <c r="FT55" s="0"/>
-      <c r="FU55" s="0"/>
-      <c r="FV55" s="0"/>
-      <c r="FW55" s="0"/>
-      <c r="FX55" s="0"/>
-      <c r="FY55" s="0"/>
-      <c r="FZ55" s="0"/>
-      <c r="GA55" s="0"/>
-      <c r="GB55" s="0"/>
-      <c r="GC55" s="0"/>
-      <c r="GD55" s="0"/>
-      <c r="GE55" s="0"/>
-      <c r="GF55" s="0"/>
-      <c r="GG55" s="0"/>
-      <c r="GH55" s="0"/>
-      <c r="GI55" s="0"/>
-      <c r="GJ55" s="0"/>
-      <c r="GK55" s="0"/>
-      <c r="GL55" s="0"/>
-      <c r="GM55" s="0"/>
-      <c r="GN55" s="0"/>
-      <c r="GO55" s="0"/>
-      <c r="GP55" s="0"/>
-      <c r="GQ55" s="0"/>
-      <c r="GR55" s="0"/>
-      <c r="GS55" s="0"/>
-      <c r="GT55" s="0"/>
-      <c r="GU55" s="0"/>
-      <c r="GV55" s="0"/>
-      <c r="GW55" s="0"/>
-      <c r="GX55" s="0"/>
-      <c r="GY55" s="0"/>
-      <c r="GZ55" s="0"/>
-      <c r="HA55" s="0"/>
-      <c r="HB55" s="0"/>
-      <c r="HC55" s="0"/>
-      <c r="HD55" s="0"/>
-      <c r="HE55" s="0"/>
-      <c r="HF55" s="0"/>
-      <c r="HG55" s="0"/>
-      <c r="HH55" s="0"/>
-      <c r="HI55" s="0"/>
-      <c r="HJ55" s="0"/>
-      <c r="HK55" s="0"/>
-      <c r="HL55" s="0"/>
-      <c r="HM55" s="0"/>
-      <c r="HN55" s="0"/>
-      <c r="HO55" s="0"/>
-      <c r="HP55" s="0"/>
-      <c r="HQ55" s="0"/>
-      <c r="HR55" s="0"/>
-      <c r="HS55" s="0"/>
-      <c r="HT55" s="0"/>
-      <c r="HU55" s="0"/>
-      <c r="HV55" s="0"/>
-      <c r="HW55" s="0"/>
-      <c r="HX55" s="0"/>
-      <c r="HY55" s="0"/>
-      <c r="HZ55" s="0"/>
-      <c r="IA55" s="0"/>
-      <c r="IB55" s="0"/>
-      <c r="IC55" s="0"/>
-      <c r="ID55" s="0"/>
-      <c r="IE55" s="0"/>
-      <c r="IF55" s="0"/>
-      <c r="IG55" s="0"/>
-      <c r="IH55" s="0"/>
-      <c r="II55" s="0"/>
-      <c r="IJ55" s="0"/>
-      <c r="IK55" s="0"/>
-      <c r="IL55" s="0"/>
-      <c r="IM55" s="0"/>
-      <c r="IN55" s="0"/>
-      <c r="IO55" s="0"/>
-      <c r="IP55" s="0"/>
-      <c r="IQ55" s="0"/>
-      <c r="IR55" s="0"/>
-      <c r="IS55" s="0"/>
-      <c r="IT55" s="0"/>
-      <c r="IU55" s="0"/>
-      <c r="IV55" s="0"/>
-      <c r="IW55" s="0"/>
-      <c r="IX55" s="0"/>
-      <c r="IY55" s="0"/>
-      <c r="IZ55" s="0"/>
-      <c r="JA55" s="0"/>
-      <c r="JB55" s="0"/>
-      <c r="JC55" s="0"/>
-      <c r="JD55" s="0"/>
-      <c r="JE55" s="0"/>
-      <c r="JF55" s="0"/>
-      <c r="JG55" s="0"/>
-      <c r="JH55" s="0"/>
-      <c r="JI55" s="0"/>
-      <c r="JJ55" s="0"/>
-      <c r="JK55" s="0"/>
-      <c r="JL55" s="0"/>
-      <c r="JM55" s="0"/>
-      <c r="JN55" s="0"/>
-      <c r="JO55" s="0"/>
-      <c r="JP55" s="0"/>
-      <c r="JQ55" s="0"/>
-      <c r="JR55" s="0"/>
-      <c r="JS55" s="0"/>
-      <c r="JT55" s="0"/>
-      <c r="JU55" s="0"/>
-      <c r="JV55" s="0"/>
-      <c r="JW55" s="0"/>
-      <c r="JX55" s="0"/>
-      <c r="JY55" s="0"/>
-      <c r="JZ55" s="0"/>
-      <c r="KA55" s="0"/>
-      <c r="KB55" s="0"/>
-      <c r="KC55" s="0"/>
-      <c r="KD55" s="0"/>
-      <c r="KE55" s="0"/>
-      <c r="KF55" s="0"/>
-      <c r="KG55" s="0"/>
-      <c r="KH55" s="0"/>
-      <c r="KI55" s="0"/>
-      <c r="KJ55" s="0"/>
-      <c r="KK55" s="0"/>
-      <c r="KL55" s="0"/>
-      <c r="KM55" s="0"/>
-      <c r="KN55" s="0"/>
-      <c r="KO55" s="0"/>
-      <c r="KP55" s="0"/>
-      <c r="KQ55" s="0"/>
-      <c r="KR55" s="0"/>
-      <c r="KS55" s="0"/>
-      <c r="KT55" s="0"/>
-      <c r="KU55" s="0"/>
-      <c r="KV55" s="0"/>
-      <c r="KW55" s="0"/>
-      <c r="KX55" s="0"/>
-      <c r="KY55" s="0"/>
-      <c r="KZ55" s="0"/>
-      <c r="LA55" s="0"/>
-      <c r="LB55" s="0"/>
-      <c r="LC55" s="0"/>
-      <c r="LD55" s="0"/>
-      <c r="LE55" s="0"/>
-      <c r="LF55" s="0"/>
-      <c r="LG55" s="0"/>
-      <c r="LH55" s="0"/>
-      <c r="LI55" s="0"/>
-      <c r="LJ55" s="0"/>
-      <c r="LK55" s="0"/>
-      <c r="LL55" s="0"/>
-      <c r="LM55" s="0"/>
-      <c r="LN55" s="0"/>
-      <c r="LO55" s="0"/>
-      <c r="LP55" s="0"/>
-      <c r="LQ55" s="0"/>
-      <c r="LR55" s="0"/>
-      <c r="LS55" s="0"/>
-      <c r="LT55" s="0"/>
-      <c r="LU55" s="0"/>
-      <c r="LV55" s="0"/>
-      <c r="LW55" s="0"/>
-      <c r="LX55" s="0"/>
-      <c r="LY55" s="0"/>
-      <c r="LZ55" s="0"/>
-      <c r="MA55" s="0"/>
-      <c r="MB55" s="0"/>
-      <c r="MC55" s="0"/>
-      <c r="MD55" s="0"/>
-      <c r="ME55" s="0"/>
-      <c r="MF55" s="0"/>
-      <c r="MG55" s="0"/>
-      <c r="MH55" s="0"/>
-      <c r="MI55" s="0"/>
-      <c r="MJ55" s="0"/>
-      <c r="MK55" s="0"/>
-      <c r="ML55" s="0"/>
-      <c r="MM55" s="0"/>
-      <c r="MN55" s="0"/>
-      <c r="MO55" s="0"/>
-      <c r="MP55" s="0"/>
-      <c r="MQ55" s="0"/>
-      <c r="MR55" s="0"/>
-      <c r="MS55" s="0"/>
-      <c r="MT55" s="0"/>
-      <c r="MU55" s="0"/>
-      <c r="MV55" s="0"/>
-      <c r="MW55" s="0"/>
-      <c r="MX55" s="0"/>
-      <c r="MY55" s="0"/>
-      <c r="MZ55" s="0"/>
-      <c r="NA55" s="0"/>
-      <c r="NB55" s="0"/>
-      <c r="NC55" s="0"/>
-      <c r="ND55" s="0"/>
-      <c r="NE55" s="0"/>
-      <c r="NF55" s="0"/>
-      <c r="NG55" s="0"/>
-      <c r="NH55" s="0"/>
-      <c r="NI55" s="0"/>
-      <c r="NJ55" s="0"/>
-      <c r="NK55" s="0"/>
-      <c r="NL55" s="0"/>
-      <c r="NM55" s="0"/>
-      <c r="NN55" s="0"/>
-      <c r="NO55" s="0"/>
-      <c r="NP55" s="0"/>
-      <c r="NQ55" s="0"/>
-      <c r="NR55" s="0"/>
-      <c r="NS55" s="0"/>
-      <c r="NT55" s="0"/>
-      <c r="NU55" s="0"/>
-      <c r="NV55" s="0"/>
-      <c r="NW55" s="0"/>
-      <c r="NX55" s="0"/>
-      <c r="NY55" s="0"/>
-      <c r="NZ55" s="0"/>
-      <c r="OA55" s="0"/>
-      <c r="OB55" s="0"/>
-      <c r="OC55" s="0"/>
-      <c r="OD55" s="0"/>
-      <c r="OE55" s="0"/>
-      <c r="OF55" s="0"/>
-      <c r="OG55" s="0"/>
-      <c r="OH55" s="0"/>
-      <c r="OI55" s="0"/>
-      <c r="OJ55" s="0"/>
-      <c r="OK55" s="0"/>
-      <c r="OL55" s="0"/>
-      <c r="OM55" s="0"/>
-      <c r="ON55" s="0"/>
-      <c r="OO55" s="0"/>
-      <c r="OP55" s="0"/>
-      <c r="OQ55" s="0"/>
-      <c r="OR55" s="0"/>
-      <c r="OS55" s="0"/>
-      <c r="OT55" s="0"/>
-      <c r="OU55" s="0"/>
-      <c r="OV55" s="0"/>
-      <c r="OW55" s="0"/>
-      <c r="OX55" s="0"/>
-      <c r="OY55" s="0"/>
-      <c r="OZ55" s="0"/>
-      <c r="PA55" s="0"/>
-      <c r="PB55" s="0"/>
-      <c r="PC55" s="0"/>
-      <c r="PD55" s="0"/>
-      <c r="PE55" s="0"/>
-      <c r="PF55" s="0"/>
-      <c r="PG55" s="0"/>
-      <c r="PH55" s="0"/>
-      <c r="PI55" s="0"/>
-      <c r="PJ55" s="0"/>
-      <c r="PK55" s="0"/>
-      <c r="PL55" s="0"/>
-      <c r="PM55" s="0"/>
-      <c r="PN55" s="0"/>
-      <c r="PO55" s="0"/>
-      <c r="PP55" s="0"/>
-      <c r="PQ55" s="0"/>
-      <c r="PR55" s="0"/>
-      <c r="PS55" s="0"/>
-      <c r="PT55" s="0"/>
-      <c r="PU55" s="0"/>
-      <c r="PV55" s="0"/>
-      <c r="PW55" s="0"/>
-      <c r="PX55" s="0"/>
-      <c r="PY55" s="0"/>
-      <c r="PZ55" s="0"/>
-      <c r="QA55" s="0"/>
-      <c r="QB55" s="0"/>
-      <c r="QC55" s="0"/>
-      <c r="QD55" s="0"/>
-      <c r="QE55" s="0"/>
-      <c r="QF55" s="0"/>
-      <c r="QG55" s="0"/>
-      <c r="QH55" s="0"/>
-      <c r="QI55" s="0"/>
-      <c r="QJ55" s="0"/>
-      <c r="QK55" s="0"/>
-      <c r="QL55" s="0"/>
-      <c r="QM55" s="0"/>
-      <c r="QN55" s="0"/>
-      <c r="QO55" s="0"/>
-      <c r="QP55" s="0"/>
-      <c r="QQ55" s="0"/>
-      <c r="QR55" s="0"/>
-      <c r="QS55" s="0"/>
-      <c r="QT55" s="0"/>
-      <c r="QU55" s="0"/>
-      <c r="QV55" s="0"/>
-      <c r="QW55" s="0"/>
-      <c r="QX55" s="0"/>
-      <c r="QY55" s="0"/>
-      <c r="QZ55" s="0"/>
-      <c r="RA55" s="0"/>
-      <c r="RB55" s="0"/>
-      <c r="RC55" s="0"/>
-      <c r="RD55" s="0"/>
-      <c r="RE55" s="0"/>
-      <c r="RF55" s="0"/>
-      <c r="RG55" s="0"/>
-      <c r="RH55" s="0"/>
-      <c r="RI55" s="0"/>
-      <c r="RJ55" s="0"/>
-      <c r="RK55" s="0"/>
-      <c r="RL55" s="0"/>
-      <c r="RM55" s="0"/>
-      <c r="RN55" s="0"/>
-      <c r="RO55" s="0"/>
-      <c r="RP55" s="0"/>
-      <c r="RQ55" s="0"/>
-      <c r="RR55" s="0"/>
-      <c r="RS55" s="0"/>
-      <c r="RT55" s="0"/>
-      <c r="RU55" s="0"/>
-      <c r="RV55" s="0"/>
-      <c r="RW55" s="0"/>
-      <c r="RX55" s="0"/>
-      <c r="RY55" s="0"/>
-      <c r="RZ55" s="0"/>
-      <c r="SA55" s="0"/>
-      <c r="SB55" s="0"/>
-      <c r="SC55" s="0"/>
-      <c r="SD55" s="0"/>
-      <c r="SE55" s="0"/>
-      <c r="SF55" s="0"/>
-      <c r="SG55" s="0"/>
-      <c r="SH55" s="0"/>
-      <c r="SI55" s="0"/>
-      <c r="SJ55" s="0"/>
-      <c r="SK55" s="0"/>
-      <c r="SL55" s="0"/>
-      <c r="SM55" s="0"/>
-      <c r="SN55" s="0"/>
-      <c r="SO55" s="0"/>
-      <c r="SP55" s="0"/>
-      <c r="SQ55" s="0"/>
-      <c r="SR55" s="0"/>
-      <c r="SS55" s="0"/>
-      <c r="ST55" s="0"/>
-      <c r="SU55" s="0"/>
-      <c r="SV55" s="0"/>
-      <c r="SW55" s="0"/>
-      <c r="SX55" s="0"/>
-      <c r="SY55" s="0"/>
-      <c r="SZ55" s="0"/>
-      <c r="TA55" s="0"/>
-      <c r="TB55" s="0"/>
-      <c r="TC55" s="0"/>
-      <c r="TD55" s="0"/>
-      <c r="TE55" s="0"/>
-      <c r="TF55" s="0"/>
-      <c r="TG55" s="0"/>
-      <c r="TH55" s="0"/>
-      <c r="TI55" s="0"/>
-      <c r="TJ55" s="0"/>
-      <c r="TK55" s="0"/>
-      <c r="TL55" s="0"/>
-      <c r="TM55" s="0"/>
-      <c r="TN55" s="0"/>
-      <c r="TO55" s="0"/>
-      <c r="TP55" s="0"/>
-      <c r="TQ55" s="0"/>
-      <c r="TR55" s="0"/>
-      <c r="TS55" s="0"/>
-      <c r="TT55" s="0"/>
-      <c r="TU55" s="0"/>
-      <c r="TV55" s="0"/>
-      <c r="TW55" s="0"/>
-      <c r="TX55" s="0"/>
-      <c r="TY55" s="0"/>
-      <c r="TZ55" s="0"/>
-      <c r="UA55" s="0"/>
-      <c r="UB55" s="0"/>
-      <c r="UC55" s="0"/>
-      <c r="UD55" s="0"/>
-      <c r="UE55" s="0"/>
-      <c r="UF55" s="0"/>
-      <c r="UG55" s="0"/>
-      <c r="UH55" s="0"/>
-      <c r="UI55" s="0"/>
-      <c r="UJ55" s="0"/>
-      <c r="UK55" s="0"/>
-      <c r="UL55" s="0"/>
-      <c r="UM55" s="0"/>
-      <c r="UN55" s="0"/>
-      <c r="UO55" s="0"/>
-      <c r="UP55" s="0"/>
-      <c r="UQ55" s="0"/>
-      <c r="UR55" s="0"/>
-      <c r="US55" s="0"/>
-      <c r="UT55" s="0"/>
-      <c r="UU55" s="0"/>
-      <c r="UV55" s="0"/>
-      <c r="UW55" s="0"/>
-      <c r="UX55" s="0"/>
-      <c r="UY55" s="0"/>
-      <c r="UZ55" s="0"/>
-      <c r="VA55" s="0"/>
-      <c r="VB55" s="0"/>
-      <c r="VC55" s="0"/>
-      <c r="VD55" s="0"/>
-      <c r="VE55" s="0"/>
-      <c r="VF55" s="0"/>
-      <c r="VG55" s="0"/>
-      <c r="VH55" s="0"/>
-      <c r="VI55" s="0"/>
-      <c r="VJ55" s="0"/>
-      <c r="VK55" s="0"/>
-      <c r="VL55" s="0"/>
-      <c r="VM55" s="0"/>
-      <c r="VN55" s="0"/>
-      <c r="VO55" s="0"/>
-      <c r="VP55" s="0"/>
-      <c r="VQ55" s="0"/>
-      <c r="VR55" s="0"/>
-      <c r="VS55" s="0"/>
-      <c r="VT55" s="0"/>
-      <c r="VU55" s="0"/>
-      <c r="VV55" s="0"/>
-      <c r="VW55" s="0"/>
-      <c r="VX55" s="0"/>
-      <c r="VY55" s="0"/>
-      <c r="VZ55" s="0"/>
-      <c r="WA55" s="0"/>
-      <c r="WB55" s="0"/>
-      <c r="WC55" s="0"/>
-      <c r="WD55" s="0"/>
-      <c r="WE55" s="0"/>
-      <c r="WF55" s="0"/>
-      <c r="WG55" s="0"/>
-      <c r="WH55" s="0"/>
-      <c r="WI55" s="0"/>
-      <c r="WJ55" s="0"/>
-      <c r="WK55" s="0"/>
-      <c r="WL55" s="0"/>
-      <c r="WM55" s="0"/>
-      <c r="WN55" s="0"/>
-      <c r="WO55" s="0"/>
-      <c r="WP55" s="0"/>
-      <c r="WQ55" s="0"/>
-      <c r="WR55" s="0"/>
-      <c r="WS55" s="0"/>
-      <c r="WT55" s="0"/>
-      <c r="WU55" s="0"/>
-      <c r="WV55" s="0"/>
-      <c r="WW55" s="0"/>
-      <c r="WX55" s="0"/>
-      <c r="WY55" s="0"/>
-      <c r="WZ55" s="0"/>
-      <c r="XA55" s="0"/>
-      <c r="XB55" s="0"/>
-      <c r="XC55" s="0"/>
-      <c r="XD55" s="0"/>
-      <c r="XE55" s="0"/>
-      <c r="XF55" s="0"/>
-      <c r="XG55" s="0"/>
-      <c r="XH55" s="0"/>
-      <c r="XI55" s="0"/>
-      <c r="XJ55" s="0"/>
-      <c r="XK55" s="0"/>
-      <c r="XL55" s="0"/>
-      <c r="XM55" s="0"/>
-      <c r="XN55" s="0"/>
-      <c r="XO55" s="0"/>
-      <c r="XP55" s="0"/>
-      <c r="XQ55" s="0"/>
-      <c r="XR55" s="0"/>
-      <c r="XS55" s="0"/>
-      <c r="XT55" s="0"/>
-      <c r="XU55" s="0"/>
-      <c r="XV55" s="0"/>
-      <c r="XW55" s="0"/>
-      <c r="XX55" s="0"/>
-      <c r="XY55" s="0"/>
-      <c r="XZ55" s="0"/>
-      <c r="YA55" s="0"/>
-      <c r="YB55" s="0"/>
-      <c r="YC55" s="0"/>
-      <c r="YD55" s="0"/>
-      <c r="YE55" s="0"/>
-      <c r="YF55" s="0"/>
-      <c r="YG55" s="0"/>
-      <c r="YH55" s="0"/>
-      <c r="YI55" s="0"/>
-      <c r="YJ55" s="0"/>
-      <c r="YK55" s="0"/>
-      <c r="YL55" s="0"/>
-      <c r="YM55" s="0"/>
-      <c r="YN55" s="0"/>
-      <c r="YO55" s="0"/>
-      <c r="YP55" s="0"/>
-      <c r="YQ55" s="0"/>
-      <c r="YR55" s="0"/>
-      <c r="YS55" s="0"/>
-      <c r="YT55" s="0"/>
-      <c r="YU55" s="0"/>
-      <c r="YV55" s="0"/>
-      <c r="YW55" s="0"/>
-      <c r="YX55" s="0"/>
-      <c r="YY55" s="0"/>
-      <c r="YZ55" s="0"/>
-      <c r="ZA55" s="0"/>
-      <c r="ZB55" s="0"/>
-      <c r="ZC55" s="0"/>
-      <c r="ZD55" s="0"/>
-      <c r="ZE55" s="0"/>
-      <c r="ZF55" s="0"/>
-      <c r="ZG55" s="0"/>
-      <c r="ZH55" s="0"/>
-      <c r="ZI55" s="0"/>
-      <c r="ZJ55" s="0"/>
-      <c r="ZK55" s="0"/>
-      <c r="ZL55" s="0"/>
-      <c r="ZM55" s="0"/>
-      <c r="ZN55" s="0"/>
-      <c r="ZO55" s="0"/>
-      <c r="ZP55" s="0"/>
-      <c r="ZQ55" s="0"/>
-      <c r="ZR55" s="0"/>
-      <c r="ZS55" s="0"/>
-      <c r="ZT55" s="0"/>
-      <c r="ZU55" s="0"/>
-      <c r="ZV55" s="0"/>
-      <c r="ZW55" s="0"/>
-      <c r="ZX55" s="0"/>
-      <c r="ZY55" s="0"/>
-      <c r="ZZ55" s="0"/>
-      <c r="AAA55" s="0"/>
-      <c r="AAB55" s="0"/>
-      <c r="AAC55" s="0"/>
-      <c r="AAD55" s="0"/>
-      <c r="AAE55" s="0"/>
-      <c r="AAF55" s="0"/>
-      <c r="AAG55" s="0"/>
-      <c r="AAH55" s="0"/>
-      <c r="AAI55" s="0"/>
-      <c r="AAJ55" s="0"/>
-      <c r="AAK55" s="0"/>
-      <c r="AAL55" s="0"/>
-      <c r="AAM55" s="0"/>
-      <c r="AAN55" s="0"/>
-      <c r="AAO55" s="0"/>
-      <c r="AAP55" s="0"/>
-      <c r="AAQ55" s="0"/>
-      <c r="AAR55" s="0"/>
-      <c r="AAS55" s="0"/>
-      <c r="AAT55" s="0"/>
-      <c r="AAU55" s="0"/>
-      <c r="AAV55" s="0"/>
-      <c r="AAW55" s="0"/>
-      <c r="AAX55" s="0"/>
-      <c r="AAY55" s="0"/>
-      <c r="AAZ55" s="0"/>
-      <c r="ABA55" s="0"/>
-      <c r="ABB55" s="0"/>
-      <c r="ABC55" s="0"/>
-      <c r="ABD55" s="0"/>
-      <c r="ABE55" s="0"/>
-      <c r="ABF55" s="0"/>
-      <c r="ABG55" s="0"/>
-      <c r="ABH55" s="0"/>
-      <c r="ABI55" s="0"/>
-      <c r="ABJ55" s="0"/>
-      <c r="ABK55" s="0"/>
-      <c r="ABL55" s="0"/>
-      <c r="ABM55" s="0"/>
-      <c r="ABN55" s="0"/>
-      <c r="ABO55" s="0"/>
-      <c r="ABP55" s="0"/>
-      <c r="ABQ55" s="0"/>
-      <c r="ABR55" s="0"/>
-      <c r="ABS55" s="0"/>
-      <c r="ABT55" s="0"/>
-      <c r="ABU55" s="0"/>
-      <c r="ABV55" s="0"/>
-      <c r="ABW55" s="0"/>
-      <c r="ABX55" s="0"/>
-      <c r="ABY55" s="0"/>
-      <c r="ABZ55" s="0"/>
-      <c r="ACA55" s="0"/>
-      <c r="ACB55" s="0"/>
-      <c r="ACC55" s="0"/>
-      <c r="ACD55" s="0"/>
-      <c r="ACE55" s="0"/>
-      <c r="ACF55" s="0"/>
-      <c r="ACG55" s="0"/>
-      <c r="ACH55" s="0"/>
-      <c r="ACI55" s="0"/>
-      <c r="ACJ55" s="0"/>
-      <c r="ACK55" s="0"/>
-      <c r="ACL55" s="0"/>
-      <c r="ACM55" s="0"/>
-      <c r="ACN55" s="0"/>
-      <c r="ACO55" s="0"/>
-      <c r="ACP55" s="0"/>
-      <c r="ACQ55" s="0"/>
-      <c r="ACR55" s="0"/>
-      <c r="ACS55" s="0"/>
-      <c r="ACT55" s="0"/>
-      <c r="ACU55" s="0"/>
-      <c r="ACV55" s="0"/>
-      <c r="ACW55" s="0"/>
-      <c r="ACX55" s="0"/>
-      <c r="ACY55" s="0"/>
-      <c r="ACZ55" s="0"/>
-      <c r="ADA55" s="0"/>
-      <c r="ADB55" s="0"/>
-      <c r="ADC55" s="0"/>
-      <c r="ADD55" s="0"/>
-      <c r="ADE55" s="0"/>
-      <c r="ADF55" s="0"/>
-      <c r="ADG55" s="0"/>
-      <c r="ADH55" s="0"/>
-      <c r="ADI55" s="0"/>
-      <c r="ADJ55" s="0"/>
-      <c r="ADK55" s="0"/>
-      <c r="ADL55" s="0"/>
-      <c r="ADM55" s="0"/>
-      <c r="ADN55" s="0"/>
-      <c r="ADO55" s="0"/>
-      <c r="ADP55" s="0"/>
-      <c r="ADQ55" s="0"/>
-      <c r="ADR55" s="0"/>
-      <c r="ADS55" s="0"/>
-      <c r="ADT55" s="0"/>
-      <c r="ADU55" s="0"/>
-      <c r="ADV55" s="0"/>
-      <c r="ADW55" s="0"/>
-      <c r="ADX55" s="0"/>
-      <c r="ADY55" s="0"/>
-      <c r="ADZ55" s="0"/>
-      <c r="AEA55" s="0"/>
-      <c r="AEB55" s="0"/>
-      <c r="AEC55" s="0"/>
-      <c r="AED55" s="0"/>
-      <c r="AEE55" s="0"/>
-      <c r="AEF55" s="0"/>
-      <c r="AEG55" s="0"/>
-      <c r="AEH55" s="0"/>
-      <c r="AEI55" s="0"/>
-      <c r="AEJ55" s="0"/>
-      <c r="AEK55" s="0"/>
-      <c r="AEL55" s="0"/>
-      <c r="AEM55" s="0"/>
-      <c r="AEN55" s="0"/>
-      <c r="AEO55" s="0"/>
-      <c r="AEP55" s="0"/>
-      <c r="AEQ55" s="0"/>
-      <c r="AER55" s="0"/>
-      <c r="AES55" s="0"/>
-      <c r="AET55" s="0"/>
-      <c r="AEU55" s="0"/>
-      <c r="AEV55" s="0"/>
-      <c r="AEW55" s="0"/>
-      <c r="AEX55" s="0"/>
-      <c r="AEY55" s="0"/>
-      <c r="AEZ55" s="0"/>
-      <c r="AFA55" s="0"/>
-      <c r="AFB55" s="0"/>
-      <c r="AFC55" s="0"/>
-      <c r="AFD55" s="0"/>
-      <c r="AFE55" s="0"/>
-      <c r="AFF55" s="0"/>
-      <c r="AFG55" s="0"/>
-      <c r="AFH55" s="0"/>
-      <c r="AFI55" s="0"/>
-      <c r="AFJ55" s="0"/>
-      <c r="AFK55" s="0"/>
-      <c r="AFL55" s="0"/>
-      <c r="AFM55" s="0"/>
-      <c r="AFN55" s="0"/>
-      <c r="AFO55" s="0"/>
-      <c r="AFP55" s="0"/>
-      <c r="AFQ55" s="0"/>
-      <c r="AFR55" s="0"/>
-      <c r="AFS55" s="0"/>
-      <c r="AFT55" s="0"/>
-      <c r="AFU55" s="0"/>
-      <c r="AFV55" s="0"/>
-      <c r="AFW55" s="0"/>
-      <c r="AFX55" s="0"/>
-      <c r="AFY55" s="0"/>
-      <c r="AFZ55" s="0"/>
-      <c r="AGA55" s="0"/>
-      <c r="AGB55" s="0"/>
-      <c r="AGC55" s="0"/>
-      <c r="AGD55" s="0"/>
-      <c r="AGE55" s="0"/>
-      <c r="AGF55" s="0"/>
-      <c r="AGG55" s="0"/>
-      <c r="AGH55" s="0"/>
-      <c r="AGI55" s="0"/>
-      <c r="AGJ55" s="0"/>
-      <c r="AGK55" s="0"/>
-      <c r="AGL55" s="0"/>
-      <c r="AGM55" s="0"/>
-      <c r="AGN55" s="0"/>
-      <c r="AGO55" s="0"/>
-      <c r="AGP55" s="0"/>
-      <c r="AGQ55" s="0"/>
-      <c r="AGR55" s="0"/>
-      <c r="AGS55" s="0"/>
-      <c r="AGT55" s="0"/>
-      <c r="AGU55" s="0"/>
-      <c r="AGV55" s="0"/>
-      <c r="AGW55" s="0"/>
-      <c r="AGX55" s="0"/>
-      <c r="AGY55" s="0"/>
-      <c r="AGZ55" s="0"/>
-      <c r="AHA55" s="0"/>
-      <c r="AHB55" s="0"/>
-      <c r="AHC55" s="0"/>
-      <c r="AHD55" s="0"/>
-      <c r="AHE55" s="0"/>
-      <c r="AHF55" s="0"/>
-      <c r="AHG55" s="0"/>
-      <c r="AHH55" s="0"/>
-      <c r="AHI55" s="0"/>
-      <c r="AHJ55" s="0"/>
-      <c r="AHK55" s="0"/>
-      <c r="AHL55" s="0"/>
-      <c r="AHM55" s="0"/>
-      <c r="AHN55" s="0"/>
-      <c r="AHO55" s="0"/>
-      <c r="AHP55" s="0"/>
-      <c r="AHQ55" s="0"/>
-      <c r="AHR55" s="0"/>
-      <c r="AHS55" s="0"/>
-      <c r="AHT55" s="0"/>
-      <c r="AHU55" s="0"/>
-      <c r="AHV55" s="0"/>
-      <c r="AHW55" s="0"/>
-      <c r="AHX55" s="0"/>
-      <c r="AHY55" s="0"/>
-      <c r="AHZ55" s="0"/>
-      <c r="AIA55" s="0"/>
-      <c r="AIB55" s="0"/>
-      <c r="AIC55" s="0"/>
-      <c r="AID55" s="0"/>
-      <c r="AIE55" s="0"/>
-      <c r="AIF55" s="0"/>
-      <c r="AIG55" s="0"/>
-      <c r="AIH55" s="0"/>
-      <c r="AII55" s="0"/>
-      <c r="AIJ55" s="0"/>
-      <c r="AIK55" s="0"/>
-      <c r="AIL55" s="0"/>
-      <c r="AIM55" s="0"/>
-      <c r="AIN55" s="0"/>
-      <c r="AIO55" s="0"/>
-      <c r="AIP55" s="0"/>
-      <c r="AIQ55" s="0"/>
-      <c r="AIR55" s="0"/>
-      <c r="AIS55" s="0"/>
-      <c r="AIT55" s="0"/>
-      <c r="AIU55" s="0"/>
-      <c r="AIV55" s="0"/>
-      <c r="AIW55" s="0"/>
-      <c r="AIX55" s="0"/>
-      <c r="AIY55" s="0"/>
-      <c r="AIZ55" s="0"/>
-      <c r="AJA55" s="0"/>
-      <c r="AJB55" s="0"/>
-      <c r="AJC55" s="0"/>
-      <c r="AJD55" s="0"/>
-      <c r="AJE55" s="0"/>
-      <c r="AJF55" s="0"/>
-      <c r="AJG55" s="0"/>
-      <c r="AJH55" s="0"/>
-      <c r="AJI55" s="0"/>
-      <c r="AJJ55" s="0"/>
-      <c r="AJK55" s="0"/>
-      <c r="AJL55" s="0"/>
-      <c r="AJM55" s="0"/>
-      <c r="AJN55" s="0"/>
-      <c r="AJO55" s="0"/>
-      <c r="AJP55" s="0"/>
-      <c r="AJQ55" s="0"/>
-      <c r="AJR55" s="0"/>
-      <c r="AJS55" s="0"/>
-      <c r="AJT55" s="0"/>
-      <c r="AJU55" s="0"/>
-      <c r="AJV55" s="0"/>
-      <c r="AJW55" s="0"/>
-      <c r="AJX55" s="0"/>
-      <c r="AJY55" s="0"/>
-      <c r="AJZ55" s="0"/>
-      <c r="AKA55" s="0"/>
-      <c r="AKB55" s="0"/>
-      <c r="AKC55" s="0"/>
-      <c r="AKD55" s="0"/>
-      <c r="AKE55" s="0"/>
-      <c r="AKF55" s="0"/>
-      <c r="AKG55" s="0"/>
-      <c r="AKH55" s="0"/>
-      <c r="AKI55" s="0"/>
-      <c r="AKJ55" s="0"/>
-      <c r="AKK55" s="0"/>
-      <c r="AKL55" s="0"/>
-      <c r="AKM55" s="0"/>
-      <c r="AKN55" s="0"/>
-      <c r="AKO55" s="0"/>
-      <c r="AKP55" s="0"/>
-      <c r="AKQ55" s="0"/>
-      <c r="AKR55" s="0"/>
-      <c r="AKS55" s="0"/>
-      <c r="AKT55" s="0"/>
-      <c r="AKU55" s="0"/>
-      <c r="AKV55" s="0"/>
-      <c r="AKW55" s="0"/>
-      <c r="AKX55" s="0"/>
-      <c r="AKY55" s="0"/>
-      <c r="AKZ55" s="0"/>
-      <c r="ALA55" s="0"/>
-      <c r="ALB55" s="0"/>
-      <c r="ALC55" s="0"/>
-      <c r="ALD55" s="0"/>
-      <c r="ALE55" s="0"/>
-      <c r="ALF55" s="0"/>
-      <c r="ALG55" s="0"/>
-      <c r="ALH55" s="0"/>
-      <c r="ALI55" s="0"/>
-      <c r="ALJ55" s="0"/>
-      <c r="ALK55" s="0"/>
-      <c r="ALL55" s="0"/>
-      <c r="ALM55" s="0"/>
-      <c r="ALN55" s="0"/>
-      <c r="ALO55" s="0"/>
-      <c r="ALP55" s="0"/>
-      <c r="ALQ55" s="0"/>
-      <c r="ALR55" s="0"/>
-      <c r="ALS55" s="0"/>
-      <c r="ALT55" s="0"/>
-      <c r="ALU55" s="0"/>
-      <c r="ALV55" s="0"/>
-      <c r="ALW55" s="0"/>
-      <c r="ALX55" s="0"/>
-      <c r="ALY55" s="0"/>
-      <c r="ALZ55" s="0"/>
-      <c r="AMA55" s="0"/>
-      <c r="AMB55" s="0"/>
-      <c r="AMC55" s="0"/>
-      <c r="AMD55" s="0"/>
-      <c r="AME55" s="0"/>
-      <c r="AMF55" s="0"/>
-      <c r="AMG55" s="0"/>
-      <c r="AMH55" s="0"/>
-      <c r="AMI55" s="0"/>
-      <c r="AMJ55" s="0"/>
+      <c r="E55" s="16"/>
+      <c r="G55" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H55" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I55" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J55" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K55" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L55" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M55" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N55" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O55" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="P55" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q55" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="R55" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="S55" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="T55" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="U55" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="V55" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="X55" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y55" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z55" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA55" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB55" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC55" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD55" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE55" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF55" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG55" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH55" s="17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="56" customFormat="false" ht="35.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A56" s="0"/>
@@ -9460,410 +8508,1411 @@
       <c r="AMJ57" s="0"/>
     </row>
     <row r="58" customFormat="false" ht="35.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A58" s="0"/>
       <c r="B58" s="0"/>
-      <c r="E58" s="16"/>
-      <c r="G58" s="17"/>
-      <c r="H58" s="17"/>
-      <c r="I58" s="17"/>
-      <c r="J58" s="17"/>
-      <c r="K58" s="17"/>
-      <c r="L58" s="17"/>
-      <c r="M58" s="17"/>
-      <c r="N58" s="17"/>
-      <c r="O58" s="17"/>
-      <c r="P58" s="17"/>
-      <c r="Q58" s="17"/>
-      <c r="R58" s="17"/>
-      <c r="S58" s="17"/>
-      <c r="T58" s="17"/>
-      <c r="U58" s="19"/>
-      <c r="V58" s="19"/>
-      <c r="W58" s="19"/>
-      <c r="X58" s="19"/>
-      <c r="Y58" s="19"/>
-      <c r="Z58" s="19"/>
-      <c r="AA58" s="19"/>
-      <c r="AB58" s="19"/>
-      <c r="AC58" s="19"/>
+      <c r="C58" s="0"/>
+      <c r="D58" s="0"/>
+      <c r="E58" s="0"/>
+      <c r="F58" s="0"/>
+      <c r="G58" s="0"/>
+      <c r="H58" s="0"/>
+      <c r="I58" s="0"/>
+      <c r="J58" s="0"/>
+      <c r="K58" s="0"/>
+      <c r="L58" s="0"/>
+      <c r="M58" s="0"/>
+      <c r="N58" s="0"/>
+      <c r="O58" s="0"/>
+      <c r="P58" s="0"/>
+      <c r="Q58" s="0"/>
+      <c r="R58" s="0"/>
+      <c r="S58" s="0"/>
+      <c r="T58" s="0"/>
+      <c r="U58" s="0"/>
+      <c r="V58" s="0"/>
+      <c r="W58" s="0"/>
+      <c r="X58" s="0"/>
+      <c r="Y58" s="0"/>
+      <c r="Z58" s="0"/>
+      <c r="AA58" s="0"/>
+      <c r="AB58" s="0"/>
+      <c r="AC58" s="0"/>
+      <c r="AD58" s="0"/>
+      <c r="AE58" s="0"/>
+      <c r="AF58" s="0"/>
+      <c r="AG58" s="0"/>
+      <c r="AH58" s="0"/>
+      <c r="AI58" s="0"/>
+      <c r="AJ58" s="0"/>
+      <c r="AK58" s="0"/>
+      <c r="AL58" s="0"/>
+      <c r="AM58" s="0"/>
+      <c r="AN58" s="0"/>
+      <c r="AO58" s="0"/>
+      <c r="AP58" s="0"/>
+      <c r="AQ58" s="0"/>
+      <c r="AR58" s="0"/>
+      <c r="AS58" s="0"/>
+      <c r="AT58" s="0"/>
+      <c r="AU58" s="0"/>
+      <c r="AV58" s="0"/>
+      <c r="AW58" s="0"/>
+      <c r="AX58" s="0"/>
+      <c r="AY58" s="0"/>
+      <c r="AZ58" s="0"/>
+      <c r="BA58" s="0"/>
+      <c r="BB58" s="0"/>
+      <c r="BC58" s="0"/>
+      <c r="BD58" s="0"/>
+      <c r="BE58" s="0"/>
+      <c r="BF58" s="0"/>
+      <c r="BG58" s="0"/>
+      <c r="BH58" s="0"/>
+      <c r="BI58" s="0"/>
+      <c r="BJ58" s="0"/>
+      <c r="BK58" s="0"/>
+      <c r="BL58" s="0"/>
+      <c r="BM58" s="0"/>
+      <c r="BN58" s="0"/>
+      <c r="BO58" s="0"/>
+      <c r="BP58" s="0"/>
+      <c r="BQ58" s="0"/>
+      <c r="BR58" s="0"/>
+      <c r="BS58" s="0"/>
+      <c r="BT58" s="0"/>
+      <c r="BU58" s="0"/>
+      <c r="BV58" s="0"/>
+      <c r="BW58" s="0"/>
+      <c r="BX58" s="0"/>
+      <c r="BY58" s="0"/>
+      <c r="BZ58" s="0"/>
+      <c r="CA58" s="0"/>
+      <c r="CB58" s="0"/>
+      <c r="CC58" s="0"/>
+      <c r="CD58" s="0"/>
+      <c r="CE58" s="0"/>
+      <c r="CF58" s="0"/>
+      <c r="CG58" s="0"/>
+      <c r="CH58" s="0"/>
+      <c r="CI58" s="0"/>
+      <c r="CJ58" s="0"/>
+      <c r="CK58" s="0"/>
+      <c r="CL58" s="0"/>
+      <c r="CM58" s="0"/>
+      <c r="CN58" s="0"/>
+      <c r="CO58" s="0"/>
+      <c r="CP58" s="0"/>
+      <c r="CQ58" s="0"/>
+      <c r="CR58" s="0"/>
+      <c r="CS58" s="0"/>
+      <c r="CT58" s="0"/>
+      <c r="CU58" s="0"/>
+      <c r="CV58" s="0"/>
+      <c r="CW58" s="0"/>
+      <c r="CX58" s="0"/>
+      <c r="CY58" s="0"/>
+      <c r="CZ58" s="0"/>
+      <c r="DA58" s="0"/>
+      <c r="DB58" s="0"/>
+      <c r="DC58" s="0"/>
+      <c r="DD58" s="0"/>
+      <c r="DE58" s="0"/>
+      <c r="DF58" s="0"/>
+      <c r="DG58" s="0"/>
+      <c r="DH58" s="0"/>
+      <c r="DI58" s="0"/>
+      <c r="DJ58" s="0"/>
+      <c r="DK58" s="0"/>
+      <c r="DL58" s="0"/>
+      <c r="DM58" s="0"/>
+      <c r="DN58" s="0"/>
+      <c r="DO58" s="0"/>
+      <c r="DP58" s="0"/>
+      <c r="DQ58" s="0"/>
+      <c r="DR58" s="0"/>
+      <c r="DS58" s="0"/>
+      <c r="DT58" s="0"/>
+      <c r="DU58" s="0"/>
+      <c r="DV58" s="0"/>
+      <c r="DW58" s="0"/>
+      <c r="DX58" s="0"/>
+      <c r="DY58" s="0"/>
+      <c r="DZ58" s="0"/>
+      <c r="EA58" s="0"/>
+      <c r="EB58" s="0"/>
+      <c r="EC58" s="0"/>
+      <c r="ED58" s="0"/>
+      <c r="EE58" s="0"/>
+      <c r="EF58" s="0"/>
+      <c r="EG58" s="0"/>
+      <c r="EH58" s="0"/>
+      <c r="EI58" s="0"/>
+      <c r="EJ58" s="0"/>
+      <c r="EK58" s="0"/>
+      <c r="EL58" s="0"/>
+      <c r="EM58" s="0"/>
+      <c r="EN58" s="0"/>
+      <c r="EO58" s="0"/>
+      <c r="EP58" s="0"/>
+      <c r="EQ58" s="0"/>
+      <c r="ER58" s="0"/>
+      <c r="ES58" s="0"/>
+      <c r="ET58" s="0"/>
+      <c r="EU58" s="0"/>
+      <c r="EV58" s="0"/>
+      <c r="EW58" s="0"/>
+      <c r="EX58" s="0"/>
+      <c r="EY58" s="0"/>
+      <c r="EZ58" s="0"/>
+      <c r="FA58" s="0"/>
+      <c r="FB58" s="0"/>
+      <c r="FC58" s="0"/>
+      <c r="FD58" s="0"/>
+      <c r="FE58" s="0"/>
+      <c r="FF58" s="0"/>
+      <c r="FG58" s="0"/>
+      <c r="FH58" s="0"/>
+      <c r="FI58" s="0"/>
+      <c r="FJ58" s="0"/>
+      <c r="FK58" s="0"/>
+      <c r="FL58" s="0"/>
+      <c r="FM58" s="0"/>
+      <c r="FN58" s="0"/>
+      <c r="FO58" s="0"/>
+      <c r="FP58" s="0"/>
+      <c r="FQ58" s="0"/>
+      <c r="FR58" s="0"/>
+      <c r="FS58" s="0"/>
+      <c r="FT58" s="0"/>
+      <c r="FU58" s="0"/>
+      <c r="FV58" s="0"/>
+      <c r="FW58" s="0"/>
+      <c r="FX58" s="0"/>
+      <c r="FY58" s="0"/>
+      <c r="FZ58" s="0"/>
+      <c r="GA58" s="0"/>
+      <c r="GB58" s="0"/>
+      <c r="GC58" s="0"/>
+      <c r="GD58" s="0"/>
+      <c r="GE58" s="0"/>
+      <c r="GF58" s="0"/>
+      <c r="GG58" s="0"/>
+      <c r="GH58" s="0"/>
+      <c r="GI58" s="0"/>
+      <c r="GJ58" s="0"/>
+      <c r="GK58" s="0"/>
+      <c r="GL58" s="0"/>
+      <c r="GM58" s="0"/>
+      <c r="GN58" s="0"/>
+      <c r="GO58" s="0"/>
+      <c r="GP58" s="0"/>
+      <c r="GQ58" s="0"/>
+      <c r="GR58" s="0"/>
+      <c r="GS58" s="0"/>
+      <c r="GT58" s="0"/>
+      <c r="GU58" s="0"/>
+      <c r="GV58" s="0"/>
+      <c r="GW58" s="0"/>
+      <c r="GX58" s="0"/>
+      <c r="GY58" s="0"/>
+      <c r="GZ58" s="0"/>
+      <c r="HA58" s="0"/>
+      <c r="HB58" s="0"/>
+      <c r="HC58" s="0"/>
+      <c r="HD58" s="0"/>
+      <c r="HE58" s="0"/>
+      <c r="HF58" s="0"/>
+      <c r="HG58" s="0"/>
+      <c r="HH58" s="0"/>
+      <c r="HI58" s="0"/>
+      <c r="HJ58" s="0"/>
+      <c r="HK58" s="0"/>
+      <c r="HL58" s="0"/>
+      <c r="HM58" s="0"/>
+      <c r="HN58" s="0"/>
+      <c r="HO58" s="0"/>
+      <c r="HP58" s="0"/>
+      <c r="HQ58" s="0"/>
+      <c r="HR58" s="0"/>
+      <c r="HS58" s="0"/>
+      <c r="HT58" s="0"/>
+      <c r="HU58" s="0"/>
+      <c r="HV58" s="0"/>
+      <c r="HW58" s="0"/>
+      <c r="HX58" s="0"/>
+      <c r="HY58" s="0"/>
+      <c r="HZ58" s="0"/>
+      <c r="IA58" s="0"/>
+      <c r="IB58" s="0"/>
+      <c r="IC58" s="0"/>
+      <c r="ID58" s="0"/>
+      <c r="IE58" s="0"/>
+      <c r="IF58" s="0"/>
+      <c r="IG58" s="0"/>
+      <c r="IH58" s="0"/>
+      <c r="II58" s="0"/>
+      <c r="IJ58" s="0"/>
+      <c r="IK58" s="0"/>
+      <c r="IL58" s="0"/>
+      <c r="IM58" s="0"/>
+      <c r="IN58" s="0"/>
+      <c r="IO58" s="0"/>
+      <c r="IP58" s="0"/>
+      <c r="IQ58" s="0"/>
+      <c r="IR58" s="0"/>
+      <c r="IS58" s="0"/>
+      <c r="IT58" s="0"/>
+      <c r="IU58" s="0"/>
+      <c r="IV58" s="0"/>
+      <c r="IW58" s="0"/>
+      <c r="IX58" s="0"/>
+      <c r="IY58" s="0"/>
+      <c r="IZ58" s="0"/>
+      <c r="JA58" s="0"/>
+      <c r="JB58" s="0"/>
+      <c r="JC58" s="0"/>
+      <c r="JD58" s="0"/>
+      <c r="JE58" s="0"/>
+      <c r="JF58" s="0"/>
+      <c r="JG58" s="0"/>
+      <c r="JH58" s="0"/>
+      <c r="JI58" s="0"/>
+      <c r="JJ58" s="0"/>
+      <c r="JK58" s="0"/>
+      <c r="JL58" s="0"/>
+      <c r="JM58" s="0"/>
+      <c r="JN58" s="0"/>
+      <c r="JO58" s="0"/>
+      <c r="JP58" s="0"/>
+      <c r="JQ58" s="0"/>
+      <c r="JR58" s="0"/>
+      <c r="JS58" s="0"/>
+      <c r="JT58" s="0"/>
+      <c r="JU58" s="0"/>
+      <c r="JV58" s="0"/>
+      <c r="JW58" s="0"/>
+      <c r="JX58" s="0"/>
+      <c r="JY58" s="0"/>
+      <c r="JZ58" s="0"/>
+      <c r="KA58" s="0"/>
+      <c r="KB58" s="0"/>
+      <c r="KC58" s="0"/>
+      <c r="KD58" s="0"/>
+      <c r="KE58" s="0"/>
+      <c r="KF58" s="0"/>
+      <c r="KG58" s="0"/>
+      <c r="KH58" s="0"/>
+      <c r="KI58" s="0"/>
+      <c r="KJ58" s="0"/>
+      <c r="KK58" s="0"/>
+      <c r="KL58" s="0"/>
+      <c r="KM58" s="0"/>
+      <c r="KN58" s="0"/>
+      <c r="KO58" s="0"/>
+      <c r="KP58" s="0"/>
+      <c r="KQ58" s="0"/>
+      <c r="KR58" s="0"/>
+      <c r="KS58" s="0"/>
+      <c r="KT58" s="0"/>
+      <c r="KU58" s="0"/>
+      <c r="KV58" s="0"/>
+      <c r="KW58" s="0"/>
+      <c r="KX58" s="0"/>
+      <c r="KY58" s="0"/>
+      <c r="KZ58" s="0"/>
+      <c r="LA58" s="0"/>
+      <c r="LB58" s="0"/>
+      <c r="LC58" s="0"/>
+      <c r="LD58" s="0"/>
+      <c r="LE58" s="0"/>
+      <c r="LF58" s="0"/>
+      <c r="LG58" s="0"/>
+      <c r="LH58" s="0"/>
+      <c r="LI58" s="0"/>
+      <c r="LJ58" s="0"/>
+      <c r="LK58" s="0"/>
+      <c r="LL58" s="0"/>
+      <c r="LM58" s="0"/>
+      <c r="LN58" s="0"/>
+      <c r="LO58" s="0"/>
+      <c r="LP58" s="0"/>
+      <c r="LQ58" s="0"/>
+      <c r="LR58" s="0"/>
+      <c r="LS58" s="0"/>
+      <c r="LT58" s="0"/>
+      <c r="LU58" s="0"/>
+      <c r="LV58" s="0"/>
+      <c r="LW58" s="0"/>
+      <c r="LX58" s="0"/>
+      <c r="LY58" s="0"/>
+      <c r="LZ58" s="0"/>
+      <c r="MA58" s="0"/>
+      <c r="MB58" s="0"/>
+      <c r="MC58" s="0"/>
+      <c r="MD58" s="0"/>
+      <c r="ME58" s="0"/>
+      <c r="MF58" s="0"/>
+      <c r="MG58" s="0"/>
+      <c r="MH58" s="0"/>
+      <c r="MI58" s="0"/>
+      <c r="MJ58" s="0"/>
+      <c r="MK58" s="0"/>
+      <c r="ML58" s="0"/>
+      <c r="MM58" s="0"/>
+      <c r="MN58" s="0"/>
+      <c r="MO58" s="0"/>
+      <c r="MP58" s="0"/>
+      <c r="MQ58" s="0"/>
+      <c r="MR58" s="0"/>
+      <c r="MS58" s="0"/>
+      <c r="MT58" s="0"/>
+      <c r="MU58" s="0"/>
+      <c r="MV58" s="0"/>
+      <c r="MW58" s="0"/>
+      <c r="MX58" s="0"/>
+      <c r="MY58" s="0"/>
+      <c r="MZ58" s="0"/>
+      <c r="NA58" s="0"/>
+      <c r="NB58" s="0"/>
+      <c r="NC58" s="0"/>
+      <c r="ND58" s="0"/>
+      <c r="NE58" s="0"/>
+      <c r="NF58" s="0"/>
+      <c r="NG58" s="0"/>
+      <c r="NH58" s="0"/>
+      <c r="NI58" s="0"/>
+      <c r="NJ58" s="0"/>
+      <c r="NK58" s="0"/>
+      <c r="NL58" s="0"/>
+      <c r="NM58" s="0"/>
+      <c r="NN58" s="0"/>
+      <c r="NO58" s="0"/>
+      <c r="NP58" s="0"/>
+      <c r="NQ58" s="0"/>
+      <c r="NR58" s="0"/>
+      <c r="NS58" s="0"/>
+      <c r="NT58" s="0"/>
+      <c r="NU58" s="0"/>
+      <c r="NV58" s="0"/>
+      <c r="NW58" s="0"/>
+      <c r="NX58" s="0"/>
+      <c r="NY58" s="0"/>
+      <c r="NZ58" s="0"/>
+      <c r="OA58" s="0"/>
+      <c r="OB58" s="0"/>
+      <c r="OC58" s="0"/>
+      <c r="OD58" s="0"/>
+      <c r="OE58" s="0"/>
+      <c r="OF58" s="0"/>
+      <c r="OG58" s="0"/>
+      <c r="OH58" s="0"/>
+      <c r="OI58" s="0"/>
+      <c r="OJ58" s="0"/>
+      <c r="OK58" s="0"/>
+      <c r="OL58" s="0"/>
+      <c r="OM58" s="0"/>
+      <c r="ON58" s="0"/>
+      <c r="OO58" s="0"/>
+      <c r="OP58" s="0"/>
+      <c r="OQ58" s="0"/>
+      <c r="OR58" s="0"/>
+      <c r="OS58" s="0"/>
+      <c r="OT58" s="0"/>
+      <c r="OU58" s="0"/>
+      <c r="OV58" s="0"/>
+      <c r="OW58" s="0"/>
+      <c r="OX58" s="0"/>
+      <c r="OY58" s="0"/>
+      <c r="OZ58" s="0"/>
+      <c r="PA58" s="0"/>
+      <c r="PB58" s="0"/>
+      <c r="PC58" s="0"/>
+      <c r="PD58" s="0"/>
+      <c r="PE58" s="0"/>
+      <c r="PF58" s="0"/>
+      <c r="PG58" s="0"/>
+      <c r="PH58" s="0"/>
+      <c r="PI58" s="0"/>
+      <c r="PJ58" s="0"/>
+      <c r="PK58" s="0"/>
+      <c r="PL58" s="0"/>
+      <c r="PM58" s="0"/>
+      <c r="PN58" s="0"/>
+      <c r="PO58" s="0"/>
+      <c r="PP58" s="0"/>
+      <c r="PQ58" s="0"/>
+      <c r="PR58" s="0"/>
+      <c r="PS58" s="0"/>
+      <c r="PT58" s="0"/>
+      <c r="PU58" s="0"/>
+      <c r="PV58" s="0"/>
+      <c r="PW58" s="0"/>
+      <c r="PX58" s="0"/>
+      <c r="PY58" s="0"/>
+      <c r="PZ58" s="0"/>
+      <c r="QA58" s="0"/>
+      <c r="QB58" s="0"/>
+      <c r="QC58" s="0"/>
+      <c r="QD58" s="0"/>
+      <c r="QE58" s="0"/>
+      <c r="QF58" s="0"/>
+      <c r="QG58" s="0"/>
+      <c r="QH58" s="0"/>
+      <c r="QI58" s="0"/>
+      <c r="QJ58" s="0"/>
+      <c r="QK58" s="0"/>
+      <c r="QL58" s="0"/>
+      <c r="QM58" s="0"/>
+      <c r="QN58" s="0"/>
+      <c r="QO58" s="0"/>
+      <c r="QP58" s="0"/>
+      <c r="QQ58" s="0"/>
+      <c r="QR58" s="0"/>
+      <c r="QS58" s="0"/>
+      <c r="QT58" s="0"/>
+      <c r="QU58" s="0"/>
+      <c r="QV58" s="0"/>
+      <c r="QW58" s="0"/>
+      <c r="QX58" s="0"/>
+      <c r="QY58" s="0"/>
+      <c r="QZ58" s="0"/>
+      <c r="RA58" s="0"/>
+      <c r="RB58" s="0"/>
+      <c r="RC58" s="0"/>
+      <c r="RD58" s="0"/>
+      <c r="RE58" s="0"/>
+      <c r="RF58" s="0"/>
+      <c r="RG58" s="0"/>
+      <c r="RH58" s="0"/>
+      <c r="RI58" s="0"/>
+      <c r="RJ58" s="0"/>
+      <c r="RK58" s="0"/>
+      <c r="RL58" s="0"/>
+      <c r="RM58" s="0"/>
+      <c r="RN58" s="0"/>
+      <c r="RO58" s="0"/>
+      <c r="RP58" s="0"/>
+      <c r="RQ58" s="0"/>
+      <c r="RR58" s="0"/>
+      <c r="RS58" s="0"/>
+      <c r="RT58" s="0"/>
+      <c r="RU58" s="0"/>
+      <c r="RV58" s="0"/>
+      <c r="RW58" s="0"/>
+      <c r="RX58" s="0"/>
+      <c r="RY58" s="0"/>
+      <c r="RZ58" s="0"/>
+      <c r="SA58" s="0"/>
+      <c r="SB58" s="0"/>
+      <c r="SC58" s="0"/>
+      <c r="SD58" s="0"/>
+      <c r="SE58" s="0"/>
+      <c r="SF58" s="0"/>
+      <c r="SG58" s="0"/>
+      <c r="SH58" s="0"/>
+      <c r="SI58" s="0"/>
+      <c r="SJ58" s="0"/>
+      <c r="SK58" s="0"/>
+      <c r="SL58" s="0"/>
+      <c r="SM58" s="0"/>
+      <c r="SN58" s="0"/>
+      <c r="SO58" s="0"/>
+      <c r="SP58" s="0"/>
+      <c r="SQ58" s="0"/>
+      <c r="SR58" s="0"/>
+      <c r="SS58" s="0"/>
+      <c r="ST58" s="0"/>
+      <c r="SU58" s="0"/>
+      <c r="SV58" s="0"/>
+      <c r="SW58" s="0"/>
+      <c r="SX58" s="0"/>
+      <c r="SY58" s="0"/>
+      <c r="SZ58" s="0"/>
+      <c r="TA58" s="0"/>
+      <c r="TB58" s="0"/>
+      <c r="TC58" s="0"/>
+      <c r="TD58" s="0"/>
+      <c r="TE58" s="0"/>
+      <c r="TF58" s="0"/>
+      <c r="TG58" s="0"/>
+      <c r="TH58" s="0"/>
+      <c r="TI58" s="0"/>
+      <c r="TJ58" s="0"/>
+      <c r="TK58" s="0"/>
+      <c r="TL58" s="0"/>
+      <c r="TM58" s="0"/>
+      <c r="TN58" s="0"/>
+      <c r="TO58" s="0"/>
+      <c r="TP58" s="0"/>
+      <c r="TQ58" s="0"/>
+      <c r="TR58" s="0"/>
+      <c r="TS58" s="0"/>
+      <c r="TT58" s="0"/>
+      <c r="TU58" s="0"/>
+      <c r="TV58" s="0"/>
+      <c r="TW58" s="0"/>
+      <c r="TX58" s="0"/>
+      <c r="TY58" s="0"/>
+      <c r="TZ58" s="0"/>
+      <c r="UA58" s="0"/>
+      <c r="UB58" s="0"/>
+      <c r="UC58" s="0"/>
+      <c r="UD58" s="0"/>
+      <c r="UE58" s="0"/>
+      <c r="UF58" s="0"/>
+      <c r="UG58" s="0"/>
+      <c r="UH58" s="0"/>
+      <c r="UI58" s="0"/>
+      <c r="UJ58" s="0"/>
+      <c r="UK58" s="0"/>
+      <c r="UL58" s="0"/>
+      <c r="UM58" s="0"/>
+      <c r="UN58" s="0"/>
+      <c r="UO58" s="0"/>
+      <c r="UP58" s="0"/>
+      <c r="UQ58" s="0"/>
+      <c r="UR58" s="0"/>
+      <c r="US58" s="0"/>
+      <c r="UT58" s="0"/>
+      <c r="UU58" s="0"/>
+      <c r="UV58" s="0"/>
+      <c r="UW58" s="0"/>
+      <c r="UX58" s="0"/>
+      <c r="UY58" s="0"/>
+      <c r="UZ58" s="0"/>
+      <c r="VA58" s="0"/>
+      <c r="VB58" s="0"/>
+      <c r="VC58" s="0"/>
+      <c r="VD58" s="0"/>
+      <c r="VE58" s="0"/>
+      <c r="VF58" s="0"/>
+      <c r="VG58" s="0"/>
+      <c r="VH58" s="0"/>
+      <c r="VI58" s="0"/>
+      <c r="VJ58" s="0"/>
+      <c r="VK58" s="0"/>
+      <c r="VL58" s="0"/>
+      <c r="VM58" s="0"/>
+      <c r="VN58" s="0"/>
+      <c r="VO58" s="0"/>
+      <c r="VP58" s="0"/>
+      <c r="VQ58" s="0"/>
+      <c r="VR58" s="0"/>
+      <c r="VS58" s="0"/>
+      <c r="VT58" s="0"/>
+      <c r="VU58" s="0"/>
+      <c r="VV58" s="0"/>
+      <c r="VW58" s="0"/>
+      <c r="VX58" s="0"/>
+      <c r="VY58" s="0"/>
+      <c r="VZ58" s="0"/>
+      <c r="WA58" s="0"/>
+      <c r="WB58" s="0"/>
+      <c r="WC58" s="0"/>
+      <c r="WD58" s="0"/>
+      <c r="WE58" s="0"/>
+      <c r="WF58" s="0"/>
+      <c r="WG58" s="0"/>
+      <c r="WH58" s="0"/>
+      <c r="WI58" s="0"/>
+      <c r="WJ58" s="0"/>
+      <c r="WK58" s="0"/>
+      <c r="WL58" s="0"/>
+      <c r="WM58" s="0"/>
+      <c r="WN58" s="0"/>
+      <c r="WO58" s="0"/>
+      <c r="WP58" s="0"/>
+      <c r="WQ58" s="0"/>
+      <c r="WR58" s="0"/>
+      <c r="WS58" s="0"/>
+      <c r="WT58" s="0"/>
+      <c r="WU58" s="0"/>
+      <c r="WV58" s="0"/>
+      <c r="WW58" s="0"/>
+      <c r="WX58" s="0"/>
+      <c r="WY58" s="0"/>
+      <c r="WZ58" s="0"/>
+      <c r="XA58" s="0"/>
+      <c r="XB58" s="0"/>
+      <c r="XC58" s="0"/>
+      <c r="XD58" s="0"/>
+      <c r="XE58" s="0"/>
+      <c r="XF58" s="0"/>
+      <c r="XG58" s="0"/>
+      <c r="XH58" s="0"/>
+      <c r="XI58" s="0"/>
+      <c r="XJ58" s="0"/>
+      <c r="XK58" s="0"/>
+      <c r="XL58" s="0"/>
+      <c r="XM58" s="0"/>
+      <c r="XN58" s="0"/>
+      <c r="XO58" s="0"/>
+      <c r="XP58" s="0"/>
+      <c r="XQ58" s="0"/>
+      <c r="XR58" s="0"/>
+      <c r="XS58" s="0"/>
+      <c r="XT58" s="0"/>
+      <c r="XU58" s="0"/>
+      <c r="XV58" s="0"/>
+      <c r="XW58" s="0"/>
+      <c r="XX58" s="0"/>
+      <c r="XY58" s="0"/>
+      <c r="XZ58" s="0"/>
+      <c r="YA58" s="0"/>
+      <c r="YB58" s="0"/>
+      <c r="YC58" s="0"/>
+      <c r="YD58" s="0"/>
+      <c r="YE58" s="0"/>
+      <c r="YF58" s="0"/>
+      <c r="YG58" s="0"/>
+      <c r="YH58" s="0"/>
+      <c r="YI58" s="0"/>
+      <c r="YJ58" s="0"/>
+      <c r="YK58" s="0"/>
+      <c r="YL58" s="0"/>
+      <c r="YM58" s="0"/>
+      <c r="YN58" s="0"/>
+      <c r="YO58" s="0"/>
+      <c r="YP58" s="0"/>
+      <c r="YQ58" s="0"/>
+      <c r="YR58" s="0"/>
+      <c r="YS58" s="0"/>
+      <c r="YT58" s="0"/>
+      <c r="YU58" s="0"/>
+      <c r="YV58" s="0"/>
+      <c r="YW58" s="0"/>
+      <c r="YX58" s="0"/>
+      <c r="YY58" s="0"/>
+      <c r="YZ58" s="0"/>
+      <c r="ZA58" s="0"/>
+      <c r="ZB58" s="0"/>
+      <c r="ZC58" s="0"/>
+      <c r="ZD58" s="0"/>
+      <c r="ZE58" s="0"/>
+      <c r="ZF58" s="0"/>
+      <c r="ZG58" s="0"/>
+      <c r="ZH58" s="0"/>
+      <c r="ZI58" s="0"/>
+      <c r="ZJ58" s="0"/>
+      <c r="ZK58" s="0"/>
+      <c r="ZL58" s="0"/>
+      <c r="ZM58" s="0"/>
+      <c r="ZN58" s="0"/>
+      <c r="ZO58" s="0"/>
+      <c r="ZP58" s="0"/>
+      <c r="ZQ58" s="0"/>
+      <c r="ZR58" s="0"/>
+      <c r="ZS58" s="0"/>
+      <c r="ZT58" s="0"/>
+      <c r="ZU58" s="0"/>
+      <c r="ZV58" s="0"/>
+      <c r="ZW58" s="0"/>
+      <c r="ZX58" s="0"/>
+      <c r="ZY58" s="0"/>
+      <c r="ZZ58" s="0"/>
+      <c r="AAA58" s="0"/>
+      <c r="AAB58" s="0"/>
+      <c r="AAC58" s="0"/>
+      <c r="AAD58" s="0"/>
+      <c r="AAE58" s="0"/>
+      <c r="AAF58" s="0"/>
+      <c r="AAG58" s="0"/>
+      <c r="AAH58" s="0"/>
+      <c r="AAI58" s="0"/>
+      <c r="AAJ58" s="0"/>
+      <c r="AAK58" s="0"/>
+      <c r="AAL58" s="0"/>
+      <c r="AAM58" s="0"/>
+      <c r="AAN58" s="0"/>
+      <c r="AAO58" s="0"/>
+      <c r="AAP58" s="0"/>
+      <c r="AAQ58" s="0"/>
+      <c r="AAR58" s="0"/>
+      <c r="AAS58" s="0"/>
+      <c r="AAT58" s="0"/>
+      <c r="AAU58" s="0"/>
+      <c r="AAV58" s="0"/>
+      <c r="AAW58" s="0"/>
+      <c r="AAX58" s="0"/>
+      <c r="AAY58" s="0"/>
+      <c r="AAZ58" s="0"/>
+      <c r="ABA58" s="0"/>
+      <c r="ABB58" s="0"/>
+      <c r="ABC58" s="0"/>
+      <c r="ABD58" s="0"/>
+      <c r="ABE58" s="0"/>
+      <c r="ABF58" s="0"/>
+      <c r="ABG58" s="0"/>
+      <c r="ABH58" s="0"/>
+      <c r="ABI58" s="0"/>
+      <c r="ABJ58" s="0"/>
+      <c r="ABK58" s="0"/>
+      <c r="ABL58" s="0"/>
+      <c r="ABM58" s="0"/>
+      <c r="ABN58" s="0"/>
+      <c r="ABO58" s="0"/>
+      <c r="ABP58" s="0"/>
+      <c r="ABQ58" s="0"/>
+      <c r="ABR58" s="0"/>
+      <c r="ABS58" s="0"/>
+      <c r="ABT58" s="0"/>
+      <c r="ABU58" s="0"/>
+      <c r="ABV58" s="0"/>
+      <c r="ABW58" s="0"/>
+      <c r="ABX58" s="0"/>
+      <c r="ABY58" s="0"/>
+      <c r="ABZ58" s="0"/>
+      <c r="ACA58" s="0"/>
+      <c r="ACB58" s="0"/>
+      <c r="ACC58" s="0"/>
+      <c r="ACD58" s="0"/>
+      <c r="ACE58" s="0"/>
+      <c r="ACF58" s="0"/>
+      <c r="ACG58" s="0"/>
+      <c r="ACH58" s="0"/>
+      <c r="ACI58" s="0"/>
+      <c r="ACJ58" s="0"/>
+      <c r="ACK58" s="0"/>
+      <c r="ACL58" s="0"/>
+      <c r="ACM58" s="0"/>
+      <c r="ACN58" s="0"/>
+      <c r="ACO58" s="0"/>
+      <c r="ACP58" s="0"/>
+      <c r="ACQ58" s="0"/>
+      <c r="ACR58" s="0"/>
+      <c r="ACS58" s="0"/>
+      <c r="ACT58" s="0"/>
+      <c r="ACU58" s="0"/>
+      <c r="ACV58" s="0"/>
+      <c r="ACW58" s="0"/>
+      <c r="ACX58" s="0"/>
+      <c r="ACY58" s="0"/>
+      <c r="ACZ58" s="0"/>
+      <c r="ADA58" s="0"/>
+      <c r="ADB58" s="0"/>
+      <c r="ADC58" s="0"/>
+      <c r="ADD58" s="0"/>
+      <c r="ADE58" s="0"/>
+      <c r="ADF58" s="0"/>
+      <c r="ADG58" s="0"/>
+      <c r="ADH58" s="0"/>
+      <c r="ADI58" s="0"/>
+      <c r="ADJ58" s="0"/>
+      <c r="ADK58" s="0"/>
+      <c r="ADL58" s="0"/>
+      <c r="ADM58" s="0"/>
+      <c r="ADN58" s="0"/>
+      <c r="ADO58" s="0"/>
+      <c r="ADP58" s="0"/>
+      <c r="ADQ58" s="0"/>
+      <c r="ADR58" s="0"/>
+      <c r="ADS58" s="0"/>
+      <c r="ADT58" s="0"/>
+      <c r="ADU58" s="0"/>
+      <c r="ADV58" s="0"/>
+      <c r="ADW58" s="0"/>
+      <c r="ADX58" s="0"/>
+      <c r="ADY58" s="0"/>
+      <c r="ADZ58" s="0"/>
+      <c r="AEA58" s="0"/>
+      <c r="AEB58" s="0"/>
+      <c r="AEC58" s="0"/>
+      <c r="AED58" s="0"/>
+      <c r="AEE58" s="0"/>
+      <c r="AEF58" s="0"/>
+      <c r="AEG58" s="0"/>
+      <c r="AEH58" s="0"/>
+      <c r="AEI58" s="0"/>
+      <c r="AEJ58" s="0"/>
+      <c r="AEK58" s="0"/>
+      <c r="AEL58" s="0"/>
+      <c r="AEM58" s="0"/>
+      <c r="AEN58" s="0"/>
+      <c r="AEO58" s="0"/>
+      <c r="AEP58" s="0"/>
+      <c r="AEQ58" s="0"/>
+      <c r="AER58" s="0"/>
+      <c r="AES58" s="0"/>
+      <c r="AET58" s="0"/>
+      <c r="AEU58" s="0"/>
+      <c r="AEV58" s="0"/>
+      <c r="AEW58" s="0"/>
+      <c r="AEX58" s="0"/>
+      <c r="AEY58" s="0"/>
+      <c r="AEZ58" s="0"/>
+      <c r="AFA58" s="0"/>
+      <c r="AFB58" s="0"/>
+      <c r="AFC58" s="0"/>
+      <c r="AFD58" s="0"/>
+      <c r="AFE58" s="0"/>
+      <c r="AFF58" s="0"/>
+      <c r="AFG58" s="0"/>
+      <c r="AFH58" s="0"/>
+      <c r="AFI58" s="0"/>
+      <c r="AFJ58" s="0"/>
+      <c r="AFK58" s="0"/>
+      <c r="AFL58" s="0"/>
+      <c r="AFM58" s="0"/>
+      <c r="AFN58" s="0"/>
+      <c r="AFO58" s="0"/>
+      <c r="AFP58" s="0"/>
+      <c r="AFQ58" s="0"/>
+      <c r="AFR58" s="0"/>
+      <c r="AFS58" s="0"/>
+      <c r="AFT58" s="0"/>
+      <c r="AFU58" s="0"/>
+      <c r="AFV58" s="0"/>
+      <c r="AFW58" s="0"/>
+      <c r="AFX58" s="0"/>
+      <c r="AFY58" s="0"/>
+      <c r="AFZ58" s="0"/>
+      <c r="AGA58" s="0"/>
+      <c r="AGB58" s="0"/>
+      <c r="AGC58" s="0"/>
+      <c r="AGD58" s="0"/>
+      <c r="AGE58" s="0"/>
+      <c r="AGF58" s="0"/>
+      <c r="AGG58" s="0"/>
+      <c r="AGH58" s="0"/>
+      <c r="AGI58" s="0"/>
+      <c r="AGJ58" s="0"/>
+      <c r="AGK58" s="0"/>
+      <c r="AGL58" s="0"/>
+      <c r="AGM58" s="0"/>
+      <c r="AGN58" s="0"/>
+      <c r="AGO58" s="0"/>
+      <c r="AGP58" s="0"/>
+      <c r="AGQ58" s="0"/>
+      <c r="AGR58" s="0"/>
+      <c r="AGS58" s="0"/>
+      <c r="AGT58" s="0"/>
+      <c r="AGU58" s="0"/>
+      <c r="AGV58" s="0"/>
+      <c r="AGW58" s="0"/>
+      <c r="AGX58" s="0"/>
+      <c r="AGY58" s="0"/>
+      <c r="AGZ58" s="0"/>
+      <c r="AHA58" s="0"/>
+      <c r="AHB58" s="0"/>
+      <c r="AHC58" s="0"/>
+      <c r="AHD58" s="0"/>
+      <c r="AHE58" s="0"/>
+      <c r="AHF58" s="0"/>
+      <c r="AHG58" s="0"/>
+      <c r="AHH58" s="0"/>
+      <c r="AHI58" s="0"/>
+      <c r="AHJ58" s="0"/>
+      <c r="AHK58" s="0"/>
+      <c r="AHL58" s="0"/>
+      <c r="AHM58" s="0"/>
+      <c r="AHN58" s="0"/>
+      <c r="AHO58" s="0"/>
+      <c r="AHP58" s="0"/>
+      <c r="AHQ58" s="0"/>
+      <c r="AHR58" s="0"/>
+      <c r="AHS58" s="0"/>
+      <c r="AHT58" s="0"/>
+      <c r="AHU58" s="0"/>
+      <c r="AHV58" s="0"/>
+      <c r="AHW58" s="0"/>
+      <c r="AHX58" s="0"/>
+      <c r="AHY58" s="0"/>
+      <c r="AHZ58" s="0"/>
+      <c r="AIA58" s="0"/>
+      <c r="AIB58" s="0"/>
+      <c r="AIC58" s="0"/>
+      <c r="AID58" s="0"/>
+      <c r="AIE58" s="0"/>
+      <c r="AIF58" s="0"/>
+      <c r="AIG58" s="0"/>
+      <c r="AIH58" s="0"/>
+      <c r="AII58" s="0"/>
+      <c r="AIJ58" s="0"/>
+      <c r="AIK58" s="0"/>
+      <c r="AIL58" s="0"/>
+      <c r="AIM58" s="0"/>
+      <c r="AIN58" s="0"/>
+      <c r="AIO58" s="0"/>
+      <c r="AIP58" s="0"/>
+      <c r="AIQ58" s="0"/>
+      <c r="AIR58" s="0"/>
+      <c r="AIS58" s="0"/>
+      <c r="AIT58" s="0"/>
+      <c r="AIU58" s="0"/>
+      <c r="AIV58" s="0"/>
+      <c r="AIW58" s="0"/>
+      <c r="AIX58" s="0"/>
+      <c r="AIY58" s="0"/>
+      <c r="AIZ58" s="0"/>
+      <c r="AJA58" s="0"/>
+      <c r="AJB58" s="0"/>
+      <c r="AJC58" s="0"/>
+      <c r="AJD58" s="0"/>
+      <c r="AJE58" s="0"/>
+      <c r="AJF58" s="0"/>
+      <c r="AJG58" s="0"/>
+      <c r="AJH58" s="0"/>
+      <c r="AJI58" s="0"/>
+      <c r="AJJ58" s="0"/>
+      <c r="AJK58" s="0"/>
+      <c r="AJL58" s="0"/>
+      <c r="AJM58" s="0"/>
+      <c r="AJN58" s="0"/>
+      <c r="AJO58" s="0"/>
+      <c r="AJP58" s="0"/>
+      <c r="AJQ58" s="0"/>
+      <c r="AJR58" s="0"/>
+      <c r="AJS58" s="0"/>
+      <c r="AJT58" s="0"/>
+      <c r="AJU58" s="0"/>
+      <c r="AJV58" s="0"/>
+      <c r="AJW58" s="0"/>
+      <c r="AJX58" s="0"/>
+      <c r="AJY58" s="0"/>
+      <c r="AJZ58" s="0"/>
+      <c r="AKA58" s="0"/>
+      <c r="AKB58" s="0"/>
+      <c r="AKC58" s="0"/>
+      <c r="AKD58" s="0"/>
+      <c r="AKE58" s="0"/>
+      <c r="AKF58" s="0"/>
+      <c r="AKG58" s="0"/>
+      <c r="AKH58" s="0"/>
+      <c r="AKI58" s="0"/>
+      <c r="AKJ58" s="0"/>
+      <c r="AKK58" s="0"/>
+      <c r="AKL58" s="0"/>
+      <c r="AKM58" s="0"/>
+      <c r="AKN58" s="0"/>
+      <c r="AKO58" s="0"/>
+      <c r="AKP58" s="0"/>
+      <c r="AKQ58" s="0"/>
+      <c r="AKR58" s="0"/>
+      <c r="AKS58" s="0"/>
+      <c r="AKT58" s="0"/>
+      <c r="AKU58" s="0"/>
+      <c r="AKV58" s="0"/>
+      <c r="AKW58" s="0"/>
+      <c r="AKX58" s="0"/>
+      <c r="AKY58" s="0"/>
+      <c r="AKZ58" s="0"/>
+      <c r="ALA58" s="0"/>
+      <c r="ALB58" s="0"/>
+      <c r="ALC58" s="0"/>
+      <c r="ALD58" s="0"/>
+      <c r="ALE58" s="0"/>
+      <c r="ALF58" s="0"/>
+      <c r="ALG58" s="0"/>
+      <c r="ALH58" s="0"/>
+      <c r="ALI58" s="0"/>
+      <c r="ALJ58" s="0"/>
+      <c r="ALK58" s="0"/>
+      <c r="ALL58" s="0"/>
+      <c r="ALM58" s="0"/>
+      <c r="ALN58" s="0"/>
+      <c r="ALO58" s="0"/>
+      <c r="ALP58" s="0"/>
+      <c r="ALQ58" s="0"/>
+      <c r="ALR58" s="0"/>
+      <c r="ALS58" s="0"/>
+      <c r="ALT58" s="0"/>
+      <c r="ALU58" s="0"/>
+      <c r="ALV58" s="0"/>
+      <c r="ALW58" s="0"/>
+      <c r="ALX58" s="0"/>
+      <c r="ALY58" s="0"/>
+      <c r="ALZ58" s="0"/>
+      <c r="AMA58" s="0"/>
+      <c r="AMB58" s="0"/>
+      <c r="AMC58" s="0"/>
+      <c r="AMD58" s="0"/>
+      <c r="AME58" s="0"/>
+      <c r="AMF58" s="0"/>
+      <c r="AMG58" s="0"/>
+      <c r="AMH58" s="0"/>
+      <c r="AMI58" s="0"/>
+      <c r="AMJ58" s="0"/>
     </row>
     <row r="59" customFormat="false" ht="35.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B59" s="0"/>
-      <c r="F59" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G59" s="19" t="n">
-        <f aca="false">COUNTIF(G3:G58,100%)</f>
-        <v>2</v>
-      </c>
-      <c r="H59" s="19" t="n">
-        <f aca="false">COUNTIF(H3:H58,100%)</f>
-        <v>2</v>
-      </c>
-      <c r="I59" s="19" t="n">
-        <f aca="false">COUNTIF(I3:I58,100%)</f>
-        <v>4</v>
-      </c>
-      <c r="J59" s="19" t="n">
-        <f aca="false">COUNTIF(J3:J58,100%)</f>
-        <v>5</v>
-      </c>
-      <c r="K59" s="19" t="n">
-        <f aca="false">COUNTIF(K3:K58,100%)</f>
-        <v>6</v>
-      </c>
-      <c r="L59" s="19" t="n">
-        <f aca="false">COUNTIF(L3:L58,100%)</f>
-        <v>8</v>
-      </c>
-      <c r="M59" s="19" t="n">
-        <f aca="false">COUNTIF(M3:M58,100%)</f>
-        <v>9</v>
-      </c>
-      <c r="N59" s="19" t="n">
-        <f aca="false">COUNTIF(N3:N58,100%)</f>
-        <v>15</v>
-      </c>
-      <c r="O59" s="19" t="n">
-        <f aca="false">COUNTIF(O3:O58,100%)</f>
-        <v>17</v>
-      </c>
-      <c r="P59" s="19" t="n">
-        <f aca="false">COUNTIF(P3:P58,100%)</f>
-        <v>19</v>
-      </c>
-      <c r="Q59" s="19" t="n">
-        <f aca="false">COUNTIF(Q3:Q58,100%)</f>
-        <v>21</v>
-      </c>
-      <c r="R59" s="19" t="n">
-        <f aca="false">COUNTIF(R3:R58,100%)</f>
-        <v>26</v>
-      </c>
-      <c r="S59" s="19" t="n">
-        <f aca="false">COUNTIF(S3:S58,100%)</f>
-        <v>30</v>
-      </c>
-      <c r="T59" s="19" t="n">
-        <f aca="false">COUNTIF(T3:T58,100%)</f>
-        <v>30</v>
-      </c>
-      <c r="U59" s="19" t="n">
-        <f aca="false">COUNTIF(U3:U58,100%)</f>
-        <v>30</v>
-      </c>
-      <c r="V59" s="19" t="n">
-        <f aca="false">COUNTIF(V3:V58,100%)</f>
-        <v>30</v>
-      </c>
-      <c r="W59" s="19" t="n">
-        <f aca="false">COUNTIF(W3:W58,100%)</f>
-        <v>30</v>
-      </c>
-      <c r="X59" s="19" t="n">
-        <f aca="false">COUNTIF(X3:X58,100%)</f>
-        <v>30</v>
-      </c>
-      <c r="Y59" s="19" t="n">
-        <f aca="false">COUNTIF(Y3:Y58,100%)</f>
-        <v>30</v>
-      </c>
-      <c r="Z59" s="19" t="n">
-        <f aca="false">COUNTIF(Z3:Z58,100%)</f>
-        <v>30</v>
-      </c>
-      <c r="AA59" s="19" t="n">
-        <f aca="false">COUNTIF(AA3:AA58,100%)</f>
-        <v>30</v>
-      </c>
-      <c r="AB59" s="19" t="n">
-        <f aca="false">COUNTIF(AB3:AB58,100%)</f>
-        <v>30</v>
-      </c>
-      <c r="AC59" s="19" t="n">
-        <f aca="false">COUNTIF(AC3:AC58,100%)</f>
-        <v>30</v>
-      </c>
-      <c r="AD59" s="19" t="n">
-        <f aca="false">COUNTIF(AD3:AD58,100%)</f>
-        <v>30</v>
-      </c>
-      <c r="AE59" s="19" t="n">
-        <f aca="false">COUNTIF(AE3:AE58,100%)</f>
-        <v>30</v>
-      </c>
-      <c r="AF59" s="19" t="n">
-        <f aca="false">COUNTIF(AF3:AF58,100%)</f>
-        <v>30</v>
-      </c>
-      <c r="AG59" s="19" t="n">
-        <f aca="false">COUNTIF(AG3:AG58,100%)</f>
-        <v>30</v>
-      </c>
-      <c r="AH59" s="19" t="n">
-        <f aca="false">COUNTIF(AH3:AH58,100%)</f>
-        <v>30</v>
-      </c>
+      <c r="E59" s="16"/>
+      <c r="G59" s="17"/>
+      <c r="H59" s="17"/>
+      <c r="I59" s="17"/>
+      <c r="J59" s="17"/>
+      <c r="K59" s="17"/>
+      <c r="L59" s="17"/>
+      <c r="M59" s="17"/>
+      <c r="N59" s="17"/>
+      <c r="O59" s="17"/>
+      <c r="P59" s="17"/>
+      <c r="Q59" s="17"/>
+      <c r="R59" s="17"/>
+      <c r="S59" s="17"/>
+      <c r="T59" s="17"/>
+      <c r="U59" s="19"/>
+      <c r="V59" s="19"/>
+      <c r="W59" s="19"/>
+      <c r="X59" s="19"/>
+      <c r="Y59" s="19"/>
+      <c r="Z59" s="19"/>
+      <c r="AA59" s="19"/>
+      <c r="AB59" s="19"/>
+      <c r="AC59" s="19"/>
     </row>
     <row r="60" customFormat="false" ht="35.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B60" s="0"/>
       <c r="F60" s="5" t="s">
-        <v>47</v>
+        <v>11</v>
       </c>
       <c r="G60" s="19" t="n">
-        <f aca="false">COUNT(G3:G58)-G59-G61</f>
+        <f aca="false">COUNTIF(G3:G59,100%)</f>
         <v>2</v>
       </c>
       <c r="H60" s="19" t="n">
-        <f aca="false">COUNT(H3:H58)-H59-H61</f>
+        <f aca="false">COUNTIF(H3:H59,100%)</f>
         <v>2</v>
       </c>
       <c r="I60" s="19" t="n">
-        <f aca="false">COUNT(I3:I58)-I59-I61</f>
-        <v>1</v>
+        <f aca="false">COUNTIF(I3:I59,100%)</f>
+        <v>4</v>
       </c>
       <c r="J60" s="19" t="n">
-        <f aca="false">COUNT(J3:J58)-J59-J61</f>
-        <v>3</v>
+        <f aca="false">COUNTIF(J3:J59,100%)</f>
+        <v>5</v>
       </c>
       <c r="K60" s="19" t="n">
-        <f aca="false">COUNT(K3:K58)-K59-K61</f>
-        <v>2</v>
+        <f aca="false">COUNTIF(K3:K59,100%)</f>
+        <v>6</v>
       </c>
       <c r="L60" s="19" t="n">
-        <f aca="false">COUNT(L3:L58)-L59-L61</f>
-        <v>1</v>
+        <f aca="false">COUNTIF(L3:L59,100%)</f>
+        <v>8</v>
       </c>
       <c r="M60" s="19" t="n">
-        <f aca="false">COUNT(M3:M58)-M59-M61</f>
-        <v>1</v>
+        <f aca="false">COUNTIF(M3:M59,100%)</f>
+        <v>9</v>
       </c>
       <c r="N60" s="19" t="n">
-        <f aca="false">COUNT(N3:N58)-N59-N61</f>
-        <v>3</v>
+        <f aca="false">COUNTIF(N3:N59,100%)</f>
+        <v>15</v>
       </c>
       <c r="O60" s="19" t="n">
-        <f aca="false">COUNT(O3:O58)-O59-O61</f>
-        <v>3</v>
+        <f aca="false">COUNTIF(O3:O59,100%)</f>
+        <v>17</v>
       </c>
       <c r="P60" s="19" t="n">
-        <f aca="false">COUNT(P3:P58)-P59-P61</f>
-        <v>2</v>
+        <f aca="false">COUNTIF(P3:P59,100%)</f>
+        <v>19</v>
       </c>
       <c r="Q60" s="19" t="n">
-        <f aca="false">COUNT(Q3:Q58)-Q59-Q61</f>
-        <v>1</v>
+        <f aca="false">COUNTIF(Q3:Q59,100%)</f>
+        <v>21</v>
       </c>
       <c r="R60" s="19" t="n">
-        <f aca="false">COUNT(R3:R58)-R59-R61</f>
-        <v>1</v>
+        <f aca="false">COUNTIF(R3:R59,100%)</f>
+        <v>26</v>
       </c>
       <c r="S60" s="19" t="n">
-        <f aca="false">COUNT(S3:S58)-S59-S61</f>
-        <v>0</v>
+        <f aca="false">COUNTIF(S3:S59,100%)</f>
+        <v>30</v>
       </c>
       <c r="T60" s="19" t="n">
-        <f aca="false">COUNT(T3:T58)-T59-T61</f>
-        <v>0</v>
+        <f aca="false">COUNTIF(T3:T59,100%)</f>
+        <v>30</v>
       </c>
       <c r="U60" s="19" t="n">
-        <f aca="false">COUNT(U3:U58)-U59-U61</f>
-        <v>0</v>
+        <f aca="false">COUNTIF(U3:U59,100%)</f>
+        <v>30</v>
       </c>
       <c r="V60" s="19" t="n">
-        <f aca="false">COUNT(V3:V58)-V59-V61</f>
-        <v>0</v>
+        <f aca="false">COUNTIF(V3:V59,100%)</f>
+        <v>30</v>
       </c>
       <c r="W60" s="19" t="n">
-        <f aca="false">COUNT(W3:W58)-W59-W61</f>
-        <v>0</v>
+        <f aca="false">COUNTIF(W3:W59,100%)</f>
+        <v>30</v>
       </c>
       <c r="X60" s="19" t="n">
-        <f aca="false">COUNT(X3:X58)-X59-X61</f>
-        <v>0</v>
+        <f aca="false">COUNTIF(X3:X59,100%)</f>
+        <v>32</v>
       </c>
       <c r="Y60" s="19" t="n">
-        <f aca="false">COUNT(Y3:Y58)-Y59-Y61</f>
-        <v>0</v>
+        <f aca="false">COUNTIF(Y3:Y59,100%)</f>
+        <v>32</v>
       </c>
       <c r="Z60" s="19" t="n">
-        <f aca="false">COUNT(Z3:Z58)-Z59-Z61</f>
-        <v>0</v>
+        <f aca="false">COUNTIF(Z3:Z59,100%)</f>
+        <v>32</v>
       </c>
       <c r="AA60" s="19" t="n">
-        <f aca="false">COUNT(AA3:AA58)-AA59-AA61</f>
-        <v>0</v>
+        <f aca="false">COUNTIF(AA3:AA59,100%)</f>
+        <v>32</v>
       </c>
       <c r="AB60" s="19" t="n">
-        <f aca="false">COUNT(AB3:AB58)-AB59-AB61</f>
-        <v>0</v>
+        <f aca="false">COUNTIF(AB3:AB59,100%)</f>
+        <v>32</v>
       </c>
       <c r="AC60" s="19" t="n">
-        <f aca="false">COUNT(AC3:AC58)-AC59-AC61</f>
-        <v>0</v>
+        <f aca="false">COUNTIF(AC3:AC59,100%)</f>
+        <v>32</v>
       </c>
       <c r="AD60" s="19" t="n">
-        <f aca="false">COUNT(AD3:AD58)-AD59-AD61</f>
-        <v>0</v>
+        <f aca="false">COUNTIF(AD3:AD59,100%)</f>
+        <v>32</v>
       </c>
       <c r="AE60" s="19" t="n">
-        <f aca="false">COUNT(AE3:AE58)-AE59-AE61</f>
-        <v>0</v>
+        <f aca="false">COUNTIF(AE3:AE59,100%)</f>
+        <v>32</v>
       </c>
       <c r="AF60" s="19" t="n">
-        <f aca="false">COUNT(AF3:AF58)-AF59-AF61</f>
-        <v>0</v>
+        <f aca="false">COUNTIF(AF3:AF59,100%)</f>
+        <v>32</v>
       </c>
       <c r="AG60" s="19" t="n">
-        <f aca="false">COUNT(AG3:AG58)-AG59-AG61</f>
-        <v>0</v>
+        <f aca="false">COUNTIF(AG3:AG59,100%)</f>
+        <v>32</v>
       </c>
       <c r="AH60" s="19" t="n">
-        <f aca="false">COUNT(AH3:AH58)-AH59-AH61</f>
-        <v>0</v>
+        <f aca="false">COUNTIF(AH3:AH59,100%)</f>
+        <v>32</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="35.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B61" s="0"/>
       <c r="F61" s="5" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="G61" s="19" t="n">
-        <f aca="false">COUNTIF(G3:G58,0%)</f>
+        <f aca="false">COUNT(G3:G59)-G60-G62</f>
+        <v>2</v>
+      </c>
+      <c r="H61" s="19" t="n">
+        <f aca="false">COUNT(H3:H59)-H60-H62</f>
+        <v>2</v>
+      </c>
+      <c r="I61" s="19" t="n">
+        <f aca="false">COUNT(I3:I59)-I60-I62</f>
+        <v>1</v>
+      </c>
+      <c r="J61" s="19" t="n">
+        <f aca="false">COUNT(J3:J59)-J60-J62</f>
+        <v>3</v>
+      </c>
+      <c r="K61" s="19" t="n">
+        <f aca="false">COUNT(K3:K59)-K60-K62</f>
+        <v>2</v>
+      </c>
+      <c r="L61" s="19" t="n">
+        <f aca="false">COUNT(L3:L59)-L60-L62</f>
+        <v>1</v>
+      </c>
+      <c r="M61" s="19" t="n">
+        <f aca="false">COUNT(M3:M59)-M60-M62</f>
+        <v>1</v>
+      </c>
+      <c r="N61" s="19" t="n">
+        <f aca="false">COUNT(N3:N59)-N60-N62</f>
+        <v>3</v>
+      </c>
+      <c r="O61" s="19" t="n">
+        <f aca="false">COUNT(O3:O59)-O60-O62</f>
+        <v>3</v>
+      </c>
+      <c r="P61" s="19" t="n">
+        <f aca="false">COUNT(P3:P59)-P60-P62</f>
+        <v>2</v>
+      </c>
+      <c r="Q61" s="19" t="n">
+        <f aca="false">COUNT(Q3:Q59)-Q60-Q62</f>
+        <v>1</v>
+      </c>
+      <c r="R61" s="19" t="n">
+        <f aca="false">COUNT(R3:R59)-R60-R62</f>
+        <v>1</v>
+      </c>
+      <c r="S61" s="19" t="n">
+        <f aca="false">COUNT(S3:S59)-S60-S62</f>
+        <v>0</v>
+      </c>
+      <c r="T61" s="19" t="n">
+        <f aca="false">COUNT(T3:T59)-T60-T62</f>
+        <v>0</v>
+      </c>
+      <c r="U61" s="19" t="n">
+        <f aca="false">COUNT(U3:U59)-U60-U62</f>
+        <v>0</v>
+      </c>
+      <c r="V61" s="19" t="n">
+        <f aca="false">COUNT(V3:V59)-V60-V62</f>
+        <v>0</v>
+      </c>
+      <c r="W61" s="19" t="n">
+        <f aca="false">COUNT(W3:W59)-W60-W62</f>
+        <v>0</v>
+      </c>
+      <c r="X61" s="19" t="n">
+        <f aca="false">COUNT(X3:X59)-X60-X62</f>
+        <v>0</v>
+      </c>
+      <c r="Y61" s="19" t="n">
+        <f aca="false">COUNT(Y3:Y59)-Y60-Y62</f>
+        <v>0</v>
+      </c>
+      <c r="Z61" s="19" t="n">
+        <f aca="false">COUNT(Z3:Z59)-Z60-Z62</f>
+        <v>0</v>
+      </c>
+      <c r="AA61" s="19" t="n">
+        <f aca="false">COUNT(AA3:AA59)-AA60-AA62</f>
+        <v>0</v>
+      </c>
+      <c r="AB61" s="19" t="n">
+        <f aca="false">COUNT(AB3:AB59)-AB60-AB62</f>
+        <v>0</v>
+      </c>
+      <c r="AC61" s="19" t="n">
+        <f aca="false">COUNT(AC3:AC59)-AC60-AC62</f>
+        <v>0</v>
+      </c>
+      <c r="AD61" s="19" t="n">
+        <f aca="false">COUNT(AD3:AD59)-AD60-AD62</f>
+        <v>0</v>
+      </c>
+      <c r="AE61" s="19" t="n">
+        <f aca="false">COUNT(AE3:AE59)-AE60-AE62</f>
+        <v>0</v>
+      </c>
+      <c r="AF61" s="19" t="n">
+        <f aca="false">COUNT(AF3:AF59)-AF60-AF62</f>
+        <v>0</v>
+      </c>
+      <c r="AG61" s="19" t="n">
+        <f aca="false">COUNT(AG3:AG59)-AG60-AG62</f>
+        <v>0</v>
+      </c>
+      <c r="AH61" s="19" t="n">
+        <f aca="false">COUNT(AH3:AH59)-AH60-AH62</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="35.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B62" s="0"/>
+      <c r="F62" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="G62" s="19" t="n">
+        <f aca="false">COUNTIF(G3:G59,0%)</f>
         <v>48</v>
       </c>
-      <c r="H61" s="19" t="n">
-        <f aca="false">COUNTIF(H3:H58,0%)</f>
+      <c r="H62" s="19" t="n">
+        <f aca="false">COUNTIF(H3:H59,0%)</f>
         <v>48</v>
       </c>
-      <c r="I61" s="19" t="n">
-        <f aca="false">COUNTIF(I3:I58,0%)</f>
+      <c r="I62" s="19" t="n">
+        <f aca="false">COUNTIF(I3:I59,0%)</f>
         <v>47</v>
       </c>
-      <c r="J61" s="19" t="n">
-        <f aca="false">COUNTIF(J3:J58,0%)</f>
+      <c r="J62" s="19" t="n">
+        <f aca="false">COUNTIF(J3:J59,0%)</f>
         <v>44</v>
       </c>
-      <c r="K61" s="19" t="n">
-        <f aca="false">COUNTIF(K3:K58,0%)</f>
+      <c r="K62" s="19" t="n">
+        <f aca="false">COUNTIF(K3:K59,0%)</f>
         <v>44</v>
       </c>
-      <c r="L61" s="19" t="n">
-        <f aca="false">COUNTIF(L3:L58,0%)</f>
+      <c r="L62" s="19" t="n">
+        <f aca="false">COUNTIF(L3:L59,0%)</f>
         <v>43</v>
       </c>
-      <c r="M61" s="19" t="n">
-        <f aca="false">COUNTIF(M3:M58,0%)</f>
+      <c r="M62" s="19" t="n">
+        <f aca="false">COUNTIF(M3:M59,0%)</f>
         <v>42</v>
       </c>
-      <c r="N61" s="19" t="n">
-        <f aca="false">COUNTIF(N3:N58,0%)</f>
+      <c r="N62" s="19" t="n">
+        <f aca="false">COUNTIF(N3:N59,0%)</f>
         <v>34</v>
       </c>
-      <c r="O61" s="19" t="n">
-        <f aca="false">COUNTIF(O3:O58,0%)</f>
+      <c r="O62" s="19" t="n">
+        <f aca="false">COUNTIF(O3:O59,0%)</f>
         <v>32</v>
       </c>
-      <c r="P61" s="19" t="n">
-        <f aca="false">COUNTIF(P3:P58,0%)</f>
+      <c r="P62" s="19" t="n">
+        <f aca="false">COUNTIF(P3:P59,0%)</f>
         <v>31</v>
       </c>
-      <c r="Q61" s="19" t="n">
-        <f aca="false">COUNTIF(Q3:Q58,0%)</f>
+      <c r="Q62" s="19" t="n">
+        <f aca="false">COUNTIF(Q3:Q59,0%)</f>
         <v>30</v>
       </c>
-      <c r="R61" s="19" t="n">
-        <f aca="false">COUNTIF(R3:R58,0%)</f>
+      <c r="R62" s="19" t="n">
+        <f aca="false">COUNTIF(R3:R59,0%)</f>
         <v>25</v>
       </c>
-      <c r="S61" s="19" t="n">
-        <f aca="false">COUNTIF(S3:S58,0%)</f>
+      <c r="S62" s="19" t="n">
+        <f aca="false">COUNTIF(S3:S59,0%)</f>
         <v>22</v>
       </c>
-      <c r="T61" s="19" t="n">
-        <f aca="false">COUNTIF(T3:T58,0%)</f>
+      <c r="T62" s="19" t="n">
+        <f aca="false">COUNTIF(T3:T59,0%)</f>
         <v>22</v>
       </c>
-      <c r="U61" s="19" t="n">
-        <f aca="false">COUNTIF(U3:U58,0%)</f>
+      <c r="U62" s="19" t="n">
+        <f aca="false">COUNTIF(U3:U59,0%)</f>
         <v>22</v>
       </c>
-      <c r="V61" s="19" t="n">
-        <f aca="false">COUNTIF(V3:V58,0%)</f>
+      <c r="V62" s="19" t="n">
+        <f aca="false">COUNTIF(V3:V59,0%)</f>
         <v>22</v>
       </c>
-      <c r="W61" s="19" t="n">
-        <f aca="false">COUNTIF(W3:W58,0%)</f>
+      <c r="W62" s="19" t="n">
+        <f aca="false">COUNTIF(W3:W59,0%)</f>
         <v>22</v>
       </c>
-      <c r="X61" s="19" t="n">
-        <f aca="false">COUNTIF(X3:X58,0%)</f>
-        <v>22</v>
-      </c>
-      <c r="Y61" s="19" t="n">
-        <f aca="false">COUNTIF(Y3:Y58,0%)</f>
-        <v>22</v>
-      </c>
-      <c r="Z61" s="19" t="n">
-        <f aca="false">COUNTIF(Z3:Z58,0%)</f>
-        <v>22</v>
-      </c>
-      <c r="AA61" s="19" t="n">
-        <f aca="false">COUNTIF(AA3:AA58,0%)</f>
-        <v>22</v>
-      </c>
-      <c r="AB61" s="19" t="n">
-        <f aca="false">COUNTIF(AB3:AB58,0%)</f>
-        <v>22</v>
-      </c>
-      <c r="AC61" s="19" t="n">
-        <f aca="false">COUNTIF(AC3:AC58,0%)</f>
-        <v>22</v>
-      </c>
-      <c r="AD61" s="19" t="n">
-        <f aca="false">COUNTIF(AD3:AD58,0%)</f>
-        <v>22</v>
-      </c>
-      <c r="AE61" s="19" t="n">
-        <f aca="false">COUNTIF(AE3:AE58,0%)</f>
-        <v>22</v>
-      </c>
-      <c r="AF61" s="19" t="n">
-        <f aca="false">COUNTIF(AF3:AF58,0%)</f>
-        <v>22</v>
-      </c>
-      <c r="AG61" s="19" t="n">
-        <f aca="false">COUNTIF(AG3:AG58,0%)</f>
-        <v>22</v>
-      </c>
-      <c r="AH61" s="19" t="n">
-        <f aca="false">COUNTIF(AH3:AH58,0%)</f>
-        <v>22</v>
-      </c>
-    </row>
-    <row r="62" customFormat="false" ht="35.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G62" s="19"/>
-      <c r="H62" s="19"/>
-      <c r="I62" s="19"/>
-      <c r="J62" s="19"/>
-      <c r="K62" s="19"/>
-      <c r="L62" s="19"/>
-      <c r="M62" s="19"/>
-      <c r="N62" s="19"/>
-      <c r="O62" s="19"/>
-      <c r="P62" s="19"/>
-      <c r="Q62" s="19"/>
-      <c r="R62" s="19"/>
-      <c r="S62" s="19"/>
-      <c r="T62" s="19"/>
-      <c r="U62" s="19"/>
-      <c r="V62" s="19"/>
-      <c r="W62" s="19"/>
-      <c r="X62" s="19"/>
-      <c r="Y62" s="19"/>
-      <c r="Z62" s="19"/>
-      <c r="AA62" s="19"/>
-      <c r="AB62" s="19"/>
-      <c r="AC62" s="19"/>
+      <c r="X62" s="19" t="n">
+        <f aca="false">COUNTIF(X3:X59,0%)</f>
+        <v>21</v>
+      </c>
+      <c r="Y62" s="19" t="n">
+        <f aca="false">COUNTIF(Y3:Y59,0%)</f>
+        <v>21</v>
+      </c>
+      <c r="Z62" s="19" t="n">
+        <f aca="false">COUNTIF(Z3:Z59,0%)</f>
+        <v>21</v>
+      </c>
+      <c r="AA62" s="19" t="n">
+        <f aca="false">COUNTIF(AA3:AA59,0%)</f>
+        <v>21</v>
+      </c>
+      <c r="AB62" s="19" t="n">
+        <f aca="false">COUNTIF(AB3:AB59,0%)</f>
+        <v>21</v>
+      </c>
+      <c r="AC62" s="19" t="n">
+        <f aca="false">COUNTIF(AC3:AC59,0%)</f>
+        <v>21</v>
+      </c>
+      <c r="AD62" s="19" t="n">
+        <f aca="false">COUNTIF(AD3:AD59,0%)</f>
+        <v>21</v>
+      </c>
+      <c r="AE62" s="19" t="n">
+        <f aca="false">COUNTIF(AE3:AE59,0%)</f>
+        <v>21</v>
+      </c>
+      <c r="AF62" s="19" t="n">
+        <f aca="false">COUNTIF(AF3:AF59,0%)</f>
+        <v>21</v>
+      </c>
+      <c r="AG62" s="19" t="n">
+        <f aca="false">COUNTIF(AG3:AG59,0%)</f>
+        <v>21</v>
+      </c>
+      <c r="AH62" s="19" t="n">
+        <f aca="false">COUNTIF(AH3:AH59,0%)</f>
+        <v>21</v>
+      </c>
     </row>
     <row r="63" customFormat="false" ht="35.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="G63" s="19"/>
@@ -11415,12 +11464,37 @@
       <c r="AB124" s="19"/>
       <c r="AC124" s="19"/>
     </row>
+    <row r="125" customFormat="false" ht="35.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="G125" s="19"/>
+      <c r="H125" s="19"/>
+      <c r="I125" s="19"/>
+      <c r="J125" s="19"/>
+      <c r="K125" s="19"/>
+      <c r="L125" s="19"/>
+      <c r="M125" s="19"/>
+      <c r="N125" s="19"/>
+      <c r="O125" s="19"/>
+      <c r="P125" s="19"/>
+      <c r="Q125" s="19"/>
+      <c r="R125" s="19"/>
+      <c r="S125" s="19"/>
+      <c r="T125" s="19"/>
+      <c r="U125" s="19"/>
+      <c r="V125" s="19"/>
+      <c r="W125" s="19"/>
+      <c r="X125" s="19"/>
+      <c r="Y125" s="19"/>
+      <c r="Z125" s="19"/>
+      <c r="AA125" s="19"/>
+      <c r="AB125" s="19"/>
+      <c r="AC125" s="19"/>
+    </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="G1:T1"/>
     <mergeCell ref="U1:AH1"/>
   </mergeCells>
-  <conditionalFormatting sqref="F2 E58:E1048576 E1:E54">
+  <conditionalFormatting sqref="F2 E59:E1048576 E1:E55">
     <cfRule type="cellIs" priority="2" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>"DONE"</formula>
     </cfRule>
@@ -11455,7 +11529,7 @@
   </sheetPr>
   <dimension ref="A1:AC9"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="Y21" activeCellId="0" sqref="Y21"/>
     </sheetView>
   </sheetViews>
@@ -11559,116 +11633,116 @@
         <v>11</v>
       </c>
       <c r="B2" s="22" t="n">
-        <f aca="false">Sheet3!G59</f>
+        <f aca="false">Sheet3!G60</f>
         <v>2</v>
       </c>
       <c r="C2" s="22" t="n">
-        <f aca="false">Sheet3!H59</f>
+        <f aca="false">Sheet3!H60</f>
         <v>2</v>
       </c>
       <c r="D2" s="22" t="n">
-        <f aca="false">Sheet3!I59</f>
+        <f aca="false">Sheet3!I60</f>
         <v>4</v>
       </c>
       <c r="E2" s="22" t="n">
-        <f aca="false">Sheet3!J59</f>
+        <f aca="false">Sheet3!J60</f>
         <v>5</v>
       </c>
       <c r="F2" s="22" t="n">
-        <f aca="false">Sheet3!K59</f>
+        <f aca="false">Sheet3!K60</f>
         <v>6</v>
       </c>
       <c r="G2" s="22" t="n">
-        <f aca="false">Sheet3!L59</f>
+        <f aca="false">Sheet3!L60</f>
         <v>8</v>
       </c>
       <c r="H2" s="22" t="n">
-        <f aca="false">Sheet3!M59</f>
+        <f aca="false">Sheet3!M60</f>
         <v>9</v>
       </c>
       <c r="I2" s="22" t="n">
-        <f aca="false">Sheet3!N59</f>
+        <f aca="false">Sheet3!N60</f>
         <v>15</v>
       </c>
       <c r="J2" s="22" t="n">
-        <f aca="false">Sheet3!O59</f>
+        <f aca="false">Sheet3!O60</f>
         <v>17</v>
       </c>
       <c r="K2" s="22" t="n">
-        <f aca="false">Sheet3!P59</f>
+        <f aca="false">Sheet3!P60</f>
         <v>19</v>
       </c>
       <c r="L2" s="22" t="n">
-        <f aca="false">Sheet3!Q59</f>
+        <f aca="false">Sheet3!Q60</f>
         <v>21</v>
       </c>
       <c r="M2" s="22" t="n">
-        <f aca="false">Sheet3!R59</f>
+        <f aca="false">Sheet3!R60</f>
         <v>26</v>
       </c>
       <c r="N2" s="22" t="n">
-        <f aca="false">Sheet3!S59</f>
+        <f aca="false">Sheet3!S60</f>
         <v>30</v>
       </c>
       <c r="O2" s="22" t="n">
-        <f aca="false">Sheet3!T59</f>
+        <f aca="false">Sheet3!T60</f>
         <v>30</v>
       </c>
       <c r="P2" s="22" t="n">
-        <f aca="false">Sheet3!U59</f>
+        <f aca="false">Sheet3!U60</f>
         <v>30</v>
       </c>
       <c r="Q2" s="22" t="n">
-        <f aca="false">Sheet3!V59</f>
+        <f aca="false">Sheet3!V60</f>
         <v>30</v>
       </c>
       <c r="R2" s="22" t="n">
-        <f aca="false">Sheet3!W59</f>
+        <f aca="false">Sheet3!W60</f>
         <v>30</v>
       </c>
       <c r="S2" s="22" t="n">
-        <f aca="false">Sheet3!X59</f>
-        <v>30</v>
+        <f aca="false">Sheet3!X60</f>
+        <v>32</v>
       </c>
       <c r="T2" s="22" t="n">
-        <f aca="false">Sheet3!Y59</f>
-        <v>30</v>
+        <f aca="false">Sheet3!Y60</f>
+        <v>32</v>
       </c>
       <c r="U2" s="22" t="n">
-        <f aca="false">Sheet3!Z59</f>
-        <v>30</v>
+        <f aca="false">Sheet3!Z60</f>
+        <v>32</v>
       </c>
       <c r="V2" s="22" t="n">
-        <f aca="false">Sheet3!AA59</f>
-        <v>30</v>
+        <f aca="false">Sheet3!AA60</f>
+        <v>32</v>
       </c>
       <c r="W2" s="22" t="n">
-        <f aca="false">Sheet3!AB59</f>
-        <v>30</v>
+        <f aca="false">Sheet3!AB60</f>
+        <v>32</v>
       </c>
       <c r="X2" s="22" t="n">
-        <f aca="false">Sheet3!AC59</f>
-        <v>30</v>
+        <f aca="false">Sheet3!AC60</f>
+        <v>32</v>
       </c>
       <c r="Y2" s="22" t="n">
-        <f aca="false">Sheet3!AD59</f>
-        <v>30</v>
+        <f aca="false">Sheet3!AD60</f>
+        <v>32</v>
       </c>
       <c r="Z2" s="22" t="n">
-        <f aca="false">Sheet3!AE59</f>
-        <v>30</v>
+        <f aca="false">Sheet3!AE60</f>
+        <v>32</v>
       </c>
       <c r="AA2" s="22" t="n">
-        <f aca="false">Sheet3!AF59</f>
-        <v>30</v>
+        <f aca="false">Sheet3!AF60</f>
+        <v>32</v>
       </c>
       <c r="AB2" s="22" t="n">
-        <f aca="false">Sheet3!AG59</f>
-        <v>30</v>
+        <f aca="false">Sheet3!AG60</f>
+        <v>32</v>
       </c>
       <c r="AC2" s="22" t="n">
-        <f aca="false">Sheet3!AH59</f>
-        <v>30</v>
+        <f aca="false">Sheet3!AH60</f>
+        <v>32</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="33.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11676,238 +11750,238 @@
         <v>47</v>
       </c>
       <c r="B3" s="22" t="n">
-        <f aca="false">Sheet3!G60</f>
+        <f aca="false">Sheet3!G61</f>
         <v>2</v>
       </c>
       <c r="C3" s="22" t="n">
-        <f aca="false">Sheet3!H60</f>
+        <f aca="false">Sheet3!H61</f>
         <v>2</v>
       </c>
       <c r="D3" s="22" t="n">
-        <f aca="false">Sheet3!I60</f>
+        <f aca="false">Sheet3!I61</f>
         <v>1</v>
       </c>
       <c r="E3" s="22" t="n">
-        <f aca="false">Sheet3!J60</f>
+        <f aca="false">Sheet3!J61</f>
         <v>3</v>
       </c>
       <c r="F3" s="22" t="n">
-        <f aca="false">Sheet3!K60</f>
+        <f aca="false">Sheet3!K61</f>
         <v>2</v>
       </c>
       <c r="G3" s="22" t="n">
-        <f aca="false">Sheet3!L60</f>
+        <f aca="false">Sheet3!L61</f>
         <v>1</v>
       </c>
       <c r="H3" s="22" t="n">
-        <f aca="false">Sheet3!M60</f>
+        <f aca="false">Sheet3!M61</f>
         <v>1</v>
       </c>
       <c r="I3" s="22" t="n">
-        <f aca="false">Sheet3!N60</f>
+        <f aca="false">Sheet3!N61</f>
         <v>3</v>
       </c>
       <c r="J3" s="22" t="n">
-        <f aca="false">Sheet3!O60</f>
+        <f aca="false">Sheet3!O61</f>
         <v>3</v>
       </c>
       <c r="K3" s="22" t="n">
-        <f aca="false">Sheet3!P60</f>
+        <f aca="false">Sheet3!P61</f>
         <v>2</v>
       </c>
       <c r="L3" s="22" t="n">
-        <f aca="false">Sheet3!Q60</f>
+        <f aca="false">Sheet3!Q61</f>
         <v>1</v>
       </c>
       <c r="M3" s="22" t="n">
-        <f aca="false">Sheet3!R60</f>
+        <f aca="false">Sheet3!R61</f>
         <v>1</v>
       </c>
       <c r="N3" s="22" t="n">
-        <f aca="false">Sheet3!S60</f>
+        <f aca="false">Sheet3!S61</f>
         <v>0</v>
       </c>
       <c r="O3" s="22" t="n">
-        <f aca="false">Sheet3!T60</f>
+        <f aca="false">Sheet3!T61</f>
         <v>0</v>
       </c>
       <c r="P3" s="22" t="n">
-        <f aca="false">Sheet3!U60</f>
+        <f aca="false">Sheet3!U61</f>
         <v>0</v>
       </c>
       <c r="Q3" s="22" t="n">
-        <f aca="false">Sheet3!V60</f>
+        <f aca="false">Sheet3!V61</f>
         <v>0</v>
       </c>
       <c r="R3" s="22" t="n">
-        <f aca="false">Sheet3!W60</f>
+        <f aca="false">Sheet3!W61</f>
         <v>0</v>
       </c>
       <c r="S3" s="22" t="n">
-        <f aca="false">Sheet3!X60</f>
+        <f aca="false">Sheet3!X61</f>
         <v>0</v>
       </c>
       <c r="T3" s="22" t="n">
-        <f aca="false">Sheet3!Y60</f>
+        <f aca="false">Sheet3!Y61</f>
         <v>0</v>
       </c>
       <c r="U3" s="22" t="n">
-        <f aca="false">Sheet3!Z60</f>
+        <f aca="false">Sheet3!Z61</f>
         <v>0</v>
       </c>
       <c r="V3" s="22" t="n">
-        <f aca="false">Sheet3!AA60</f>
+        <f aca="false">Sheet3!AA61</f>
         <v>0</v>
       </c>
       <c r="W3" s="22" t="n">
-        <f aca="false">Sheet3!AB60</f>
+        <f aca="false">Sheet3!AB61</f>
         <v>0</v>
       </c>
       <c r="X3" s="22" t="n">
-        <f aca="false">Sheet3!AC60</f>
+        <f aca="false">Sheet3!AC61</f>
         <v>0</v>
       </c>
       <c r="Y3" s="22" t="n">
-        <f aca="false">Sheet3!AD60</f>
+        <f aca="false">Sheet3!AD61</f>
         <v>0</v>
       </c>
       <c r="Z3" s="22" t="n">
-        <f aca="false">Sheet3!AE60</f>
+        <f aca="false">Sheet3!AE61</f>
         <v>0</v>
       </c>
       <c r="AA3" s="22" t="n">
-        <f aca="false">Sheet3!AF60</f>
+        <f aca="false">Sheet3!AF61</f>
         <v>0</v>
       </c>
       <c r="AB3" s="22" t="n">
-        <f aca="false">Sheet3!AG60</f>
+        <f aca="false">Sheet3!AG61</f>
         <v>0</v>
       </c>
       <c r="AC3" s="22" t="n">
-        <f aca="false">Sheet3!AH60</f>
+        <f aca="false">Sheet3!AH61</f>
         <v>0</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="33.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="21" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B4" s="22" t="n">
-        <f aca="false">Sheet3!G61</f>
+        <f aca="false">Sheet3!G62</f>
         <v>48</v>
       </c>
       <c r="C4" s="22" t="n">
-        <f aca="false">Sheet3!H61</f>
+        <f aca="false">Sheet3!H62</f>
         <v>48</v>
       </c>
       <c r="D4" s="22" t="n">
-        <f aca="false">Sheet3!I61</f>
+        <f aca="false">Sheet3!I62</f>
         <v>47</v>
       </c>
       <c r="E4" s="22" t="n">
-        <f aca="false">Sheet3!J61</f>
+        <f aca="false">Sheet3!J62</f>
         <v>44</v>
       </c>
       <c r="F4" s="22" t="n">
-        <f aca="false">Sheet3!K61</f>
+        <f aca="false">Sheet3!K62</f>
         <v>44</v>
       </c>
       <c r="G4" s="22" t="n">
-        <f aca="false">Sheet3!L61</f>
+        <f aca="false">Sheet3!L62</f>
         <v>43</v>
       </c>
       <c r="H4" s="22" t="n">
-        <f aca="false">Sheet3!M61</f>
+        <f aca="false">Sheet3!M62</f>
         <v>42</v>
       </c>
       <c r="I4" s="22" t="n">
-        <f aca="false">Sheet3!N61</f>
+        <f aca="false">Sheet3!N62</f>
         <v>34</v>
       </c>
       <c r="J4" s="22" t="n">
-        <f aca="false">Sheet3!O61</f>
+        <f aca="false">Sheet3!O62</f>
         <v>32</v>
       </c>
       <c r="K4" s="22" t="n">
-        <f aca="false">Sheet3!P61</f>
+        <f aca="false">Sheet3!P62</f>
         <v>31</v>
       </c>
       <c r="L4" s="22" t="n">
-        <f aca="false">Sheet3!Q61</f>
+        <f aca="false">Sheet3!Q62</f>
         <v>30</v>
       </c>
       <c r="M4" s="22" t="n">
-        <f aca="false">Sheet3!R61</f>
+        <f aca="false">Sheet3!R62</f>
         <v>25</v>
       </c>
       <c r="N4" s="22" t="n">
-        <f aca="false">Sheet3!S61</f>
+        <f aca="false">Sheet3!S62</f>
         <v>22</v>
       </c>
       <c r="O4" s="22" t="n">
-        <f aca="false">Sheet3!T61</f>
+        <f aca="false">Sheet3!T62</f>
         <v>22</v>
       </c>
       <c r="P4" s="22" t="n">
-        <f aca="false">Sheet3!U61</f>
+        <f aca="false">Sheet3!U62</f>
         <v>22</v>
       </c>
       <c r="Q4" s="22" t="n">
-        <f aca="false">Sheet3!V61</f>
+        <f aca="false">Sheet3!V62</f>
         <v>22</v>
       </c>
       <c r="R4" s="22" t="n">
-        <f aca="false">Sheet3!W61</f>
+        <f aca="false">Sheet3!W62</f>
         <v>22</v>
       </c>
       <c r="S4" s="22" t="n">
-        <f aca="false">Sheet3!X61</f>
-        <v>22</v>
+        <f aca="false">Sheet3!X62</f>
+        <v>21</v>
       </c>
       <c r="T4" s="22" t="n">
-        <f aca="false">Sheet3!Y61</f>
-        <v>22</v>
+        <f aca="false">Sheet3!Y62</f>
+        <v>21</v>
       </c>
       <c r="U4" s="22" t="n">
-        <f aca="false">Sheet3!Z61</f>
-        <v>22</v>
+        <f aca="false">Sheet3!Z62</f>
+        <v>21</v>
       </c>
       <c r="V4" s="22" t="n">
-        <f aca="false">Sheet3!AA61</f>
-        <v>22</v>
+        <f aca="false">Sheet3!AA62</f>
+        <v>21</v>
       </c>
       <c r="W4" s="22" t="n">
-        <f aca="false">Sheet3!AB61</f>
-        <v>22</v>
+        <f aca="false">Sheet3!AB62</f>
+        <v>21</v>
       </c>
       <c r="X4" s="22" t="n">
-        <f aca="false">Sheet3!AC61</f>
-        <v>22</v>
+        <f aca="false">Sheet3!AC62</f>
+        <v>21</v>
       </c>
       <c r="Y4" s="22" t="n">
-        <f aca="false">Sheet3!AD61</f>
-        <v>22</v>
+        <f aca="false">Sheet3!AD62</f>
+        <v>21</v>
       </c>
       <c r="Z4" s="22" t="n">
-        <f aca="false">Sheet3!AE61</f>
-        <v>22</v>
+        <f aca="false">Sheet3!AE62</f>
+        <v>21</v>
       </c>
       <c r="AA4" s="22" t="n">
-        <f aca="false">Sheet3!AF61</f>
-        <v>22</v>
+        <f aca="false">Sheet3!AF62</f>
+        <v>21</v>
       </c>
       <c r="AB4" s="22" t="n">
-        <f aca="false">Sheet3!AG61</f>
-        <v>22</v>
+        <f aca="false">Sheet3!AG62</f>
+        <v>21</v>
       </c>
       <c r="AC4" s="22" t="n">
-        <f aca="false">Sheet3!AH61</f>
-        <v>22</v>
+        <f aca="false">Sheet3!AH62</f>
+        <v>21</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="33.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="20" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B5" s="20" t="n">
         <f aca="false">SUM(B2:B4)</f>
@@ -11922,13 +11996,13 @@
         <v>47</v>
       </c>
       <c r="C8" s="23" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="33.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="23" t="n">
         <f aca="false">COUNTIF(Sheet3!E:E,"DONE")</f>
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B9" s="23" t="n">
         <f aca="false">COUNTIF(Sheet3!E:E,"IN PROGRESS")</f>
